--- a/notebooks-course/data/TSLA.xlsx
+++ b/notebooks-course/data/TSLA.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3252"/>
+  <dimension ref="A1:G3557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75246,7 +75246,7022 @@
         <v>193.1699981689453</v>
       </c>
       <c r="G3252" t="n">
-        <v>161765900</v>
+        <v>162061500</v>
+      </c>
+    </row>
+    <row r="3253">
+      <c r="A3253" s="2" t="n">
+        <v>45076</v>
+      </c>
+      <c r="B3253" t="n">
+        <v>200.1000061035156</v>
+      </c>
+      <c r="C3253" t="n">
+        <v>204.4799957275391</v>
+      </c>
+      <c r="D3253" t="n">
+        <v>197.5299987792969</v>
+      </c>
+      <c r="E3253" t="n">
+        <v>201.1600036621094</v>
+      </c>
+      <c r="F3253" t="n">
+        <v>201.1600036621094</v>
+      </c>
+      <c r="G3253" t="n">
+        <v>128818700</v>
+      </c>
+    </row>
+    <row r="3254">
+      <c r="A3254" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B3254" t="n">
+        <v>199.7799987792969</v>
+      </c>
+      <c r="C3254" t="n">
+        <v>203.9499969482422</v>
+      </c>
+      <c r="D3254" t="n">
+        <v>195.1199951171875</v>
+      </c>
+      <c r="E3254" t="n">
+        <v>203.9299926757812</v>
+      </c>
+      <c r="F3254" t="n">
+        <v>203.9299926757812</v>
+      </c>
+      <c r="G3254" t="n">
+        <v>150711700</v>
+      </c>
+    </row>
+    <row r="3255">
+      <c r="A3255" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B3255" t="n">
+        <v>202.5899963378906</v>
+      </c>
+      <c r="C3255" t="n">
+        <v>209.8000030517578</v>
+      </c>
+      <c r="D3255" t="n">
+        <v>199.3699951171875</v>
+      </c>
+      <c r="E3255" t="n">
+        <v>207.5200042724609</v>
+      </c>
+      <c r="F3255" t="n">
+        <v>207.5200042724609</v>
+      </c>
+      <c r="G3255" t="n">
+        <v>148029900</v>
+      </c>
+    </row>
+    <row r="3256">
+      <c r="A3256" s="2" t="n">
+        <v>45079</v>
+      </c>
+      <c r="B3256" t="n">
+        <v>210.1499938964844</v>
+      </c>
+      <c r="C3256" t="n">
+        <v>217.25</v>
+      </c>
+      <c r="D3256" t="n">
+        <v>209.75</v>
+      </c>
+      <c r="E3256" t="n">
+        <v>213.9700012207031</v>
+      </c>
+      <c r="F3256" t="n">
+        <v>213.9700012207031</v>
+      </c>
+      <c r="G3256" t="n">
+        <v>164129000</v>
+      </c>
+    </row>
+    <row r="3257">
+      <c r="A3257" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="B3257" t="n">
+        <v>217.8000030517578</v>
+      </c>
+      <c r="C3257" t="n">
+        <v>221.2899932861328</v>
+      </c>
+      <c r="D3257" t="n">
+        <v>214.5200042724609</v>
+      </c>
+      <c r="E3257" t="n">
+        <v>217.6100006103516</v>
+      </c>
+      <c r="F3257" t="n">
+        <v>217.6100006103516</v>
+      </c>
+      <c r="G3257" t="n">
+        <v>151143100</v>
+      </c>
+    </row>
+    <row r="3258">
+      <c r="A3258" s="2" t="n">
+        <v>45083</v>
+      </c>
+      <c r="B3258" t="n">
+        <v>216.1399993896484</v>
+      </c>
+      <c r="C3258" t="n">
+        <v>221.9100036621094</v>
+      </c>
+      <c r="D3258" t="n">
+        <v>212.5299987792969</v>
+      </c>
+      <c r="E3258" t="n">
+        <v>221.3099975585938</v>
+      </c>
+      <c r="F3258" t="n">
+        <v>221.3099975585938</v>
+      </c>
+      <c r="G3258" t="n">
+        <v>146911600</v>
+      </c>
+    </row>
+    <row r="3259">
+      <c r="A3259" s="2" t="n">
+        <v>45084</v>
+      </c>
+      <c r="B3259" t="n">
+        <v>228</v>
+      </c>
+      <c r="C3259" t="n">
+        <v>230.8300018310547</v>
+      </c>
+      <c r="D3259" t="n">
+        <v>223.1999969482422</v>
+      </c>
+      <c r="E3259" t="n">
+        <v>224.5700073242188</v>
+      </c>
+      <c r="F3259" t="n">
+        <v>224.5700073242188</v>
+      </c>
+      <c r="G3259" t="n">
+        <v>185710800</v>
+      </c>
+    </row>
+    <row r="3260">
+      <c r="A3260" s="2" t="n">
+        <v>45085</v>
+      </c>
+      <c r="B3260" t="n">
+        <v>224.2200012207031</v>
+      </c>
+      <c r="C3260" t="n">
+        <v>235.2299957275391</v>
+      </c>
+      <c r="D3260" t="n">
+        <v>223.0099945068359</v>
+      </c>
+      <c r="E3260" t="n">
+        <v>234.8600006103516</v>
+      </c>
+      <c r="F3260" t="n">
+        <v>234.8600006103516</v>
+      </c>
+      <c r="G3260" t="n">
+        <v>164489700</v>
+      </c>
+    </row>
+    <row r="3261">
+      <c r="A3261" s="2" t="n">
+        <v>45086</v>
+      </c>
+      <c r="B3261" t="n">
+        <v>249.0700073242188</v>
+      </c>
+      <c r="C3261" t="n">
+        <v>252.4199981689453</v>
+      </c>
+      <c r="D3261" t="n">
+        <v>242.0200042724609</v>
+      </c>
+      <c r="E3261" t="n">
+        <v>244.3999938964844</v>
+      </c>
+      <c r="F3261" t="n">
+        <v>244.3999938964844</v>
+      </c>
+      <c r="G3261" t="n">
+        <v>199882300</v>
+      </c>
+    </row>
+    <row r="3262">
+      <c r="A3262" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="B3262" t="n">
+        <v>247.9400024414062</v>
+      </c>
+      <c r="C3262" t="n">
+        <v>250.9700012207031</v>
+      </c>
+      <c r="D3262" t="n">
+        <v>244.5899963378906</v>
+      </c>
+      <c r="E3262" t="n">
+        <v>249.8300018310547</v>
+      </c>
+      <c r="F3262" t="n">
+        <v>249.8300018310547</v>
+      </c>
+      <c r="G3262" t="n">
+        <v>150337900</v>
+      </c>
+    </row>
+    <row r="3263">
+      <c r="A3263" s="2" t="n">
+        <v>45090</v>
+      </c>
+      <c r="B3263" t="n">
+        <v>253.5099945068359</v>
+      </c>
+      <c r="C3263" t="n">
+        <v>259.6799926757812</v>
+      </c>
+      <c r="D3263" t="n">
+        <v>251.3399963378906</v>
+      </c>
+      <c r="E3263" t="n">
+        <v>258.7099914550781</v>
+      </c>
+      <c r="F3263" t="n">
+        <v>258.7099914550781</v>
+      </c>
+      <c r="G3263" t="n">
+        <v>162384300</v>
+      </c>
+    </row>
+    <row r="3264">
+      <c r="A3264" s="2" t="n">
+        <v>45091</v>
+      </c>
+      <c r="B3264" t="n">
+        <v>260.1700134277344</v>
+      </c>
+      <c r="C3264" t="n">
+        <v>261.5700073242188</v>
+      </c>
+      <c r="D3264" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="E3264" t="n">
+        <v>256.7900085449219</v>
+      </c>
+      <c r="F3264" t="n">
+        <v>256.7900085449219</v>
+      </c>
+      <c r="G3264" t="n">
+        <v>170575500</v>
+      </c>
+    </row>
+    <row r="3265">
+      <c r="A3265" s="2" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B3265" t="n">
+        <v>248.3999938964844</v>
+      </c>
+      <c r="C3265" t="n">
+        <v>258.9500122070312</v>
+      </c>
+      <c r="D3265" t="n">
+        <v>247.2899932861328</v>
+      </c>
+      <c r="E3265" t="n">
+        <v>255.8999938964844</v>
+      </c>
+      <c r="F3265" t="n">
+        <v>255.8999938964844</v>
+      </c>
+      <c r="G3265" t="n">
+        <v>160171200</v>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" s="2" t="n">
+        <v>45093</v>
+      </c>
+      <c r="B3266" t="n">
+        <v>258.9200134277344</v>
+      </c>
+      <c r="C3266" t="n">
+        <v>263.6000061035156</v>
+      </c>
+      <c r="D3266" t="n">
+        <v>257.2099914550781</v>
+      </c>
+      <c r="E3266" t="n">
+        <v>260.5400085449219</v>
+      </c>
+      <c r="F3266" t="n">
+        <v>260.5400085449219</v>
+      </c>
+      <c r="G3266" t="n">
+        <v>167563700</v>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" s="2" t="n">
+        <v>45097</v>
+      </c>
+      <c r="B3267" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="C3267" t="n">
+        <v>274.75</v>
+      </c>
+      <c r="D3267" t="n">
+        <v>261.1199951171875</v>
+      </c>
+      <c r="E3267" t="n">
+        <v>274.4500122070312</v>
+      </c>
+      <c r="F3267" t="n">
+        <v>274.4500122070312</v>
+      </c>
+      <c r="G3267" t="n">
+        <v>165611200</v>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" s="2" t="n">
+        <v>45098</v>
+      </c>
+      <c r="B3268" t="n">
+        <v>275.1300048828125</v>
+      </c>
+      <c r="C3268" t="n">
+        <v>276.989990234375</v>
+      </c>
+      <c r="D3268" t="n">
+        <v>257.7799987792969</v>
+      </c>
+      <c r="E3268" t="n">
+        <v>259.4599914550781</v>
+      </c>
+      <c r="F3268" t="n">
+        <v>259.4599914550781</v>
+      </c>
+      <c r="G3268" t="n">
+        <v>211797100</v>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" s="2" t="n">
+        <v>45099</v>
+      </c>
+      <c r="B3269" t="n">
+        <v>250.7700042724609</v>
+      </c>
+      <c r="C3269" t="n">
+        <v>265</v>
+      </c>
+      <c r="D3269" t="n">
+        <v>248.25</v>
+      </c>
+      <c r="E3269" t="n">
+        <v>264.6099853515625</v>
+      </c>
+      <c r="F3269" t="n">
+        <v>264.6099853515625</v>
+      </c>
+      <c r="G3269" t="n">
+        <v>166875900</v>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" s="2" t="n">
+        <v>45100</v>
+      </c>
+      <c r="B3270" t="n">
+        <v>259.2900085449219</v>
+      </c>
+      <c r="C3270" t="n">
+        <v>262.4500122070312</v>
+      </c>
+      <c r="D3270" t="n">
+        <v>252.8000030517578</v>
+      </c>
+      <c r="E3270" t="n">
+        <v>256.6000061035156</v>
+      </c>
+      <c r="F3270" t="n">
+        <v>256.6000061035156</v>
+      </c>
+      <c r="G3270" t="n">
+        <v>176584100</v>
+      </c>
+    </row>
+    <row r="3271">
+      <c r="A3271" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="B3271" t="n">
+        <v>250.0700073242188</v>
+      </c>
+      <c r="C3271" t="n">
+        <v>258.3699951171875</v>
+      </c>
+      <c r="D3271" t="n">
+        <v>240.6999969482422</v>
+      </c>
+      <c r="E3271" t="n">
+        <v>241.0500030517578</v>
+      </c>
+      <c r="F3271" t="n">
+        <v>241.0500030517578</v>
+      </c>
+      <c r="G3271" t="n">
+        <v>179990600</v>
+      </c>
+    </row>
+    <row r="3272">
+      <c r="A3272" s="2" t="n">
+        <v>45104</v>
+      </c>
+      <c r="B3272" t="n">
+        <v>243.2400054931641</v>
+      </c>
+      <c r="C3272" t="n">
+        <v>250.3899993896484</v>
+      </c>
+      <c r="D3272" t="n">
+        <v>240.8500061035156</v>
+      </c>
+      <c r="E3272" t="n">
+        <v>250.2100067138672</v>
+      </c>
+      <c r="F3272" t="n">
+        <v>250.2100067138672</v>
+      </c>
+      <c r="G3272" t="n">
+        <v>164968200</v>
+      </c>
+    </row>
+    <row r="3273">
+      <c r="A3273" s="2" t="n">
+        <v>45105</v>
+      </c>
+      <c r="B3273" t="n">
+        <v>249.6999969482422</v>
+      </c>
+      <c r="C3273" t="n">
+        <v>259.8800048828125</v>
+      </c>
+      <c r="D3273" t="n">
+        <v>248.8899993896484</v>
+      </c>
+      <c r="E3273" t="n">
+        <v>256.239990234375</v>
+      </c>
+      <c r="F3273" t="n">
+        <v>256.239990234375</v>
+      </c>
+      <c r="G3273" t="n">
+        <v>159770800</v>
+      </c>
+    </row>
+    <row r="3274">
+      <c r="A3274" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="B3274" t="n">
+        <v>258.0299987792969</v>
+      </c>
+      <c r="C3274" t="n">
+        <v>260.739990234375</v>
+      </c>
+      <c r="D3274" t="n">
+        <v>253.6100006103516</v>
+      </c>
+      <c r="E3274" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="F3274" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="G3274" t="n">
+        <v>131283400</v>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B3275" t="n">
+        <v>260.6000061035156</v>
+      </c>
+      <c r="C3275" t="n">
+        <v>264.4500122070312</v>
+      </c>
+      <c r="D3275" t="n">
+        <v>259.8900146484375</v>
+      </c>
+      <c r="E3275" t="n">
+        <v>261.7699890136719</v>
+      </c>
+      <c r="F3275" t="n">
+        <v>261.7699890136719</v>
+      </c>
+      <c r="G3275" t="n">
+        <v>112267600</v>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="B3276" t="n">
+        <v>276.489990234375</v>
+      </c>
+      <c r="C3276" t="n">
+        <v>284.25</v>
+      </c>
+      <c r="D3276" t="n">
+        <v>275.1099853515625</v>
+      </c>
+      <c r="E3276" t="n">
+        <v>279.8200073242188</v>
+      </c>
+      <c r="F3276" t="n">
+        <v>279.8200073242188</v>
+      </c>
+      <c r="G3276" t="n">
+        <v>119685900</v>
+      </c>
+    </row>
+    <row r="3277">
+      <c r="A3277" s="2" t="n">
+        <v>45112</v>
+      </c>
+      <c r="B3277" t="n">
+        <v>278.8200073242188</v>
+      </c>
+      <c r="C3277" t="n">
+        <v>283.8500061035156</v>
+      </c>
+      <c r="D3277" t="n">
+        <v>277.6000061035156</v>
+      </c>
+      <c r="E3277" t="n">
+        <v>282.4800109863281</v>
+      </c>
+      <c r="F3277" t="n">
+        <v>282.4800109863281</v>
+      </c>
+      <c r="G3277" t="n">
+        <v>131530900</v>
+      </c>
+    </row>
+    <row r="3278">
+      <c r="A3278" s="2" t="n">
+        <v>45113</v>
+      </c>
+      <c r="B3278" t="n">
+        <v>278.0899963378906</v>
+      </c>
+      <c r="C3278" t="n">
+        <v>279.9700012207031</v>
+      </c>
+      <c r="D3278" t="n">
+        <v>272.8800048828125</v>
+      </c>
+      <c r="E3278" t="n">
+        <v>276.5400085449219</v>
+      </c>
+      <c r="F3278" t="n">
+        <v>276.5400085449219</v>
+      </c>
+      <c r="G3278" t="n">
+        <v>120332100</v>
+      </c>
+    </row>
+    <row r="3279">
+      <c r="A3279" s="2" t="n">
+        <v>45114</v>
+      </c>
+      <c r="B3279" t="n">
+        <v>278.4299926757812</v>
+      </c>
+      <c r="C3279" t="n">
+        <v>280.7799987792969</v>
+      </c>
+      <c r="D3279" t="n">
+        <v>273.7699890136719</v>
+      </c>
+      <c r="E3279" t="n">
+        <v>274.4299926757812</v>
+      </c>
+      <c r="F3279" t="n">
+        <v>274.4299926757812</v>
+      </c>
+      <c r="G3279" t="n">
+        <v>113602000</v>
+      </c>
+    </row>
+    <row r="3280">
+      <c r="A3280" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="B3280" t="n">
+        <v>276.4700012207031</v>
+      </c>
+      <c r="C3280" t="n">
+        <v>277.5199890136719</v>
+      </c>
+      <c r="D3280" t="n">
+        <v>265.1000061035156</v>
+      </c>
+      <c r="E3280" t="n">
+        <v>269.6099853515625</v>
+      </c>
+      <c r="F3280" t="n">
+        <v>269.6099853515625</v>
+      </c>
+      <c r="G3280" t="n">
+        <v>119425400</v>
+      </c>
+    </row>
+    <row r="3281">
+      <c r="A3281" s="2" t="n">
+        <v>45118</v>
+      </c>
+      <c r="B3281" t="n">
+        <v>268.6499938964844</v>
+      </c>
+      <c r="C3281" t="n">
+        <v>270.8999938964844</v>
+      </c>
+      <c r="D3281" t="n">
+        <v>266.3699951171875</v>
+      </c>
+      <c r="E3281" t="n">
+        <v>269.7900085449219</v>
+      </c>
+      <c r="F3281" t="n">
+        <v>269.7900085449219</v>
+      </c>
+      <c r="G3281" t="n">
+        <v>91972400</v>
+      </c>
+    </row>
+    <row r="3282">
+      <c r="A3282" s="2" t="n">
+        <v>45119</v>
+      </c>
+      <c r="B3282" t="n">
+        <v>276.3299865722656</v>
+      </c>
+      <c r="C3282" t="n">
+        <v>276.5199890136719</v>
+      </c>
+      <c r="D3282" t="n">
+        <v>271.4599914550781</v>
+      </c>
+      <c r="E3282" t="n">
+        <v>271.989990234375</v>
+      </c>
+      <c r="F3282" t="n">
+        <v>271.989990234375</v>
+      </c>
+      <c r="G3282" t="n">
+        <v>95672100</v>
+      </c>
+    </row>
+    <row r="3283">
+      <c r="A3283" s="2" t="n">
+        <v>45120</v>
+      </c>
+      <c r="B3283" t="n">
+        <v>274.5899963378906</v>
+      </c>
+      <c r="C3283" t="n">
+        <v>279.4500122070312</v>
+      </c>
+      <c r="D3283" t="n">
+        <v>270.6000061035156</v>
+      </c>
+      <c r="E3283" t="n">
+        <v>277.8999938964844</v>
+      </c>
+      <c r="F3283" t="n">
+        <v>277.8999938964844</v>
+      </c>
+      <c r="G3283" t="n">
+        <v>112681500</v>
+      </c>
+    </row>
+    <row r="3284">
+      <c r="A3284" s="2" t="n">
+        <v>45121</v>
+      </c>
+      <c r="B3284" t="n">
+        <v>277.010009765625</v>
+      </c>
+      <c r="C3284" t="n">
+        <v>285.2999877929688</v>
+      </c>
+      <c r="D3284" t="n">
+        <v>276.3099975585938</v>
+      </c>
+      <c r="E3284" t="n">
+        <v>281.3800048828125</v>
+      </c>
+      <c r="F3284" t="n">
+        <v>281.3800048828125</v>
+      </c>
+      <c r="G3284" t="n">
+        <v>119771100</v>
+      </c>
+    </row>
+    <row r="3285">
+      <c r="A3285" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="B3285" t="n">
+        <v>286.6300048828125</v>
+      </c>
+      <c r="C3285" t="n">
+        <v>292.2300109863281</v>
+      </c>
+      <c r="D3285" t="n">
+        <v>283.5700073242188</v>
+      </c>
+      <c r="E3285" t="n">
+        <v>290.3800048828125</v>
+      </c>
+      <c r="F3285" t="n">
+        <v>290.3800048828125</v>
+      </c>
+      <c r="G3285" t="n">
+        <v>131569600</v>
+      </c>
+    </row>
+    <row r="3286">
+      <c r="A3286" s="2" t="n">
+        <v>45125</v>
+      </c>
+      <c r="B3286" t="n">
+        <v>290.1499938964844</v>
+      </c>
+      <c r="C3286" t="n">
+        <v>295.260009765625</v>
+      </c>
+      <c r="D3286" t="n">
+        <v>286.010009765625</v>
+      </c>
+      <c r="E3286" t="n">
+        <v>293.3399963378906</v>
+      </c>
+      <c r="F3286" t="n">
+        <v>293.3399963378906</v>
+      </c>
+      <c r="G3286" t="n">
+        <v>112434700</v>
+      </c>
+    </row>
+    <row r="3287">
+      <c r="A3287" s="2" t="n">
+        <v>45126</v>
+      </c>
+      <c r="B3287" t="n">
+        <v>296.0400085449219</v>
+      </c>
+      <c r="C3287" t="n">
+        <v>299.2900085449219</v>
+      </c>
+      <c r="D3287" t="n">
+        <v>289.5199890136719</v>
+      </c>
+      <c r="E3287" t="n">
+        <v>291.260009765625</v>
+      </c>
+      <c r="F3287" t="n">
+        <v>291.260009765625</v>
+      </c>
+      <c r="G3287" t="n">
+        <v>142355400</v>
+      </c>
+    </row>
+    <row r="3288">
+      <c r="A3288" s="2" t="n">
+        <v>45127</v>
+      </c>
+      <c r="B3288" t="n">
+        <v>279.5599975585938</v>
+      </c>
+      <c r="C3288" t="n">
+        <v>280.9299926757812</v>
+      </c>
+      <c r="D3288" t="n">
+        <v>261.2000122070312</v>
+      </c>
+      <c r="E3288" t="n">
+        <v>262.8999938964844</v>
+      </c>
+      <c r="F3288" t="n">
+        <v>262.8999938964844</v>
+      </c>
+      <c r="G3288" t="n">
+        <v>175158300</v>
+      </c>
+    </row>
+    <row r="3289">
+      <c r="A3289" s="2" t="n">
+        <v>45128</v>
+      </c>
+      <c r="B3289" t="n">
+        <v>268</v>
+      </c>
+      <c r="C3289" t="n">
+        <v>268</v>
+      </c>
+      <c r="D3289" t="n">
+        <v>255.8000030517578</v>
+      </c>
+      <c r="E3289" t="n">
+        <v>260.0199890136719</v>
+      </c>
+      <c r="F3289" t="n">
+        <v>260.0199890136719</v>
+      </c>
+      <c r="G3289" t="n">
+        <v>161050100</v>
+      </c>
+    </row>
+    <row r="3290">
+      <c r="A3290" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="B3290" t="n">
+        <v>255.8500061035156</v>
+      </c>
+      <c r="C3290" t="n">
+        <v>269.8500061035156</v>
+      </c>
+      <c r="D3290" t="n">
+        <v>254.1199951171875</v>
+      </c>
+      <c r="E3290" t="n">
+        <v>269.0599975585938</v>
+      </c>
+      <c r="F3290" t="n">
+        <v>269.0599975585938</v>
+      </c>
+      <c r="G3290" t="n">
+        <v>136508500</v>
+      </c>
+    </row>
+    <row r="3291">
+      <c r="A3291" s="2" t="n">
+        <v>45132</v>
+      </c>
+      <c r="B3291" t="n">
+        <v>272.3800048828125</v>
+      </c>
+      <c r="C3291" t="n">
+        <v>272.8999938964844</v>
+      </c>
+      <c r="D3291" t="n">
+        <v>265</v>
+      </c>
+      <c r="E3291" t="n">
+        <v>265.2799987792969</v>
+      </c>
+      <c r="F3291" t="n">
+        <v>265.2799987792969</v>
+      </c>
+      <c r="G3291" t="n">
+        <v>112757300</v>
+      </c>
+    </row>
+    <row r="3292">
+      <c r="A3292" s="2" t="n">
+        <v>45133</v>
+      </c>
+      <c r="B3292" t="n">
+        <v>263.25</v>
+      </c>
+      <c r="C3292" t="n">
+        <v>268.0400085449219</v>
+      </c>
+      <c r="D3292" t="n">
+        <v>261.75</v>
+      </c>
+      <c r="E3292" t="n">
+        <v>264.3500061035156</v>
+      </c>
+      <c r="F3292" t="n">
+        <v>264.3500061035156</v>
+      </c>
+      <c r="G3292" t="n">
+        <v>95856200</v>
+      </c>
+    </row>
+    <row r="3293">
+      <c r="A3293" s="2" t="n">
+        <v>45134</v>
+      </c>
+      <c r="B3293" t="n">
+        <v>268.3099975585938</v>
+      </c>
+      <c r="C3293" t="n">
+        <v>269.1300048828125</v>
+      </c>
+      <c r="D3293" t="n">
+        <v>255.3000030517578</v>
+      </c>
+      <c r="E3293" t="n">
+        <v>255.7100067138672</v>
+      </c>
+      <c r="F3293" t="n">
+        <v>255.7100067138672</v>
+      </c>
+      <c r="G3293" t="n">
+        <v>103697300</v>
+      </c>
+    </row>
+    <row r="3294">
+      <c r="A3294" s="2" t="n">
+        <v>45135</v>
+      </c>
+      <c r="B3294" t="n">
+        <v>259.8599853515625</v>
+      </c>
+      <c r="C3294" t="n">
+        <v>267.25</v>
+      </c>
+      <c r="D3294" t="n">
+        <v>258.2300109863281</v>
+      </c>
+      <c r="E3294" t="n">
+        <v>266.4400024414062</v>
+      </c>
+      <c r="F3294" t="n">
+        <v>266.4400024414062</v>
+      </c>
+      <c r="G3294" t="n">
+        <v>111446000</v>
+      </c>
+    </row>
+    <row r="3295">
+      <c r="A3295" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B3295" t="n">
+        <v>267.4800109863281</v>
+      </c>
+      <c r="C3295" t="n">
+        <v>269.0799865722656</v>
+      </c>
+      <c r="D3295" t="n">
+        <v>263.7799987792969</v>
+      </c>
+      <c r="E3295" t="n">
+        <v>267.4299926757812</v>
+      </c>
+      <c r="F3295" t="n">
+        <v>267.4299926757812</v>
+      </c>
+      <c r="G3295" t="n">
+        <v>84582200</v>
+      </c>
+    </row>
+    <row r="3296">
+      <c r="A3296" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B3296" t="n">
+        <v>266.260009765625</v>
+      </c>
+      <c r="C3296" t="n">
+        <v>266.4700012207031</v>
+      </c>
+      <c r="D3296" t="n">
+        <v>260.25</v>
+      </c>
+      <c r="E3296" t="n">
+        <v>261.0700073242188</v>
+      </c>
+      <c r="F3296" t="n">
+        <v>261.0700073242188</v>
+      </c>
+      <c r="G3296" t="n">
+        <v>83166000</v>
+      </c>
+    </row>
+    <row r="3297">
+      <c r="A3297" s="2" t="n">
+        <v>45140</v>
+      </c>
+      <c r="B3297" t="n">
+        <v>255.5700073242188</v>
+      </c>
+      <c r="C3297" t="n">
+        <v>259.5199890136719</v>
+      </c>
+      <c r="D3297" t="n">
+        <v>250.4900054931641</v>
+      </c>
+      <c r="E3297" t="n">
+        <v>254.1100006103516</v>
+      </c>
+      <c r="F3297" t="n">
+        <v>254.1100006103516</v>
+      </c>
+      <c r="G3297" t="n">
+        <v>101752900</v>
+      </c>
+    </row>
+    <row r="3298">
+      <c r="A3298" s="2" t="n">
+        <v>45141</v>
+      </c>
+      <c r="B3298" t="n">
+        <v>252.0399932861328</v>
+      </c>
+      <c r="C3298" t="n">
+        <v>260.489990234375</v>
+      </c>
+      <c r="D3298" t="n">
+        <v>252</v>
+      </c>
+      <c r="E3298" t="n">
+        <v>259.3200073242188</v>
+      </c>
+      <c r="F3298" t="n">
+        <v>259.3200073242188</v>
+      </c>
+      <c r="G3298" t="n">
+        <v>97569100</v>
+      </c>
+    </row>
+    <row r="3299">
+      <c r="A3299" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="B3299" t="n">
+        <v>260.9700012207031</v>
+      </c>
+      <c r="C3299" t="n">
+        <v>264.7699890136719</v>
+      </c>
+      <c r="D3299" t="n">
+        <v>253.1100006103516</v>
+      </c>
+      <c r="E3299" t="n">
+        <v>253.8600006103516</v>
+      </c>
+      <c r="F3299" t="n">
+        <v>253.8600006103516</v>
+      </c>
+      <c r="G3299" t="n">
+        <v>99242600</v>
+      </c>
+    </row>
+    <row r="3300">
+      <c r="A3300" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="B3300" t="n">
+        <v>251.4499969482422</v>
+      </c>
+      <c r="C3300" t="n">
+        <v>253.6499938964844</v>
+      </c>
+      <c r="D3300" t="n">
+        <v>242.7599945068359</v>
+      </c>
+      <c r="E3300" t="n">
+        <v>251.4499969482422</v>
+      </c>
+      <c r="F3300" t="n">
+        <v>251.4499969482422</v>
+      </c>
+      <c r="G3300" t="n">
+        <v>111097900</v>
+      </c>
+    </row>
+    <row r="3301">
+      <c r="A3301" s="2" t="n">
+        <v>45146</v>
+      </c>
+      <c r="B3301" t="n">
+        <v>247.4499969482422</v>
+      </c>
+      <c r="C3301" t="n">
+        <v>250.9199981689453</v>
+      </c>
+      <c r="D3301" t="n">
+        <v>245.0099945068359</v>
+      </c>
+      <c r="E3301" t="n">
+        <v>249.6999969482422</v>
+      </c>
+      <c r="F3301" t="n">
+        <v>249.6999969482422</v>
+      </c>
+      <c r="G3301" t="n">
+        <v>96642200</v>
+      </c>
+    </row>
+    <row r="3302">
+      <c r="A3302" s="2" t="n">
+        <v>45147</v>
+      </c>
+      <c r="B3302" t="n">
+        <v>250.8699951171875</v>
+      </c>
+      <c r="C3302" t="n">
+        <v>251.1000061035156</v>
+      </c>
+      <c r="D3302" t="n">
+        <v>241.8999938964844</v>
+      </c>
+      <c r="E3302" t="n">
+        <v>242.1900024414062</v>
+      </c>
+      <c r="F3302" t="n">
+        <v>242.1900024414062</v>
+      </c>
+      <c r="G3302" t="n">
+        <v>101596300</v>
+      </c>
+    </row>
+    <row r="3303">
+      <c r="A3303" s="2" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B3303" t="n">
+        <v>245.3999938964844</v>
+      </c>
+      <c r="C3303" t="n">
+        <v>251.8000030517578</v>
+      </c>
+      <c r="D3303" t="n">
+        <v>243</v>
+      </c>
+      <c r="E3303" t="n">
+        <v>245.3399963378906</v>
+      </c>
+      <c r="F3303" t="n">
+        <v>245.3399963378906</v>
+      </c>
+      <c r="G3303" t="n">
+        <v>109498600</v>
+      </c>
+    </row>
+    <row r="3304">
+      <c r="A3304" s="2" t="n">
+        <v>45149</v>
+      </c>
+      <c r="B3304" t="n">
+        <v>241.7700042724609</v>
+      </c>
+      <c r="C3304" t="n">
+        <v>243.7899932861328</v>
+      </c>
+      <c r="D3304" t="n">
+        <v>238.0200042724609</v>
+      </c>
+      <c r="E3304" t="n">
+        <v>242.6499938964844</v>
+      </c>
+      <c r="F3304" t="n">
+        <v>242.6499938964844</v>
+      </c>
+      <c r="G3304" t="n">
+        <v>98866600</v>
+      </c>
+    </row>
+    <row r="3305">
+      <c r="A3305" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="B3305" t="n">
+        <v>235.6999969482422</v>
+      </c>
+      <c r="C3305" t="n">
+        <v>240.6600036621094</v>
+      </c>
+      <c r="D3305" t="n">
+        <v>233.75</v>
+      </c>
+      <c r="E3305" t="n">
+        <v>239.7599945068359</v>
+      </c>
+      <c r="F3305" t="n">
+        <v>239.7599945068359</v>
+      </c>
+      <c r="G3305" t="n">
+        <v>98595300</v>
+      </c>
+    </row>
+    <row r="3306">
+      <c r="A3306" s="2" t="n">
+        <v>45153</v>
+      </c>
+      <c r="B3306" t="n">
+        <v>238.7299957275391</v>
+      </c>
+      <c r="C3306" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="D3306" t="n">
+        <v>232.6100006103516</v>
+      </c>
+      <c r="E3306" t="n">
+        <v>232.9600067138672</v>
+      </c>
+      <c r="F3306" t="n">
+        <v>232.9600067138672</v>
+      </c>
+      <c r="G3306" t="n">
+        <v>88197600</v>
+      </c>
+    </row>
+    <row r="3307">
+      <c r="A3307" s="2" t="n">
+        <v>45154</v>
+      </c>
+      <c r="B3307" t="n">
+        <v>228.0200042724609</v>
+      </c>
+      <c r="C3307" t="n">
+        <v>233.9700012207031</v>
+      </c>
+      <c r="D3307" t="n">
+        <v>225.3800048828125</v>
+      </c>
+      <c r="E3307" t="n">
+        <v>225.6000061035156</v>
+      </c>
+      <c r="F3307" t="n">
+        <v>225.6000061035156</v>
+      </c>
+      <c r="G3307" t="n">
+        <v>112484500</v>
+      </c>
+    </row>
+    <row r="3308">
+      <c r="A3308" s="2" t="n">
+        <v>45155</v>
+      </c>
+      <c r="B3308" t="n">
+        <v>226.0599975585938</v>
+      </c>
+      <c r="C3308" t="n">
+        <v>226.7400054931641</v>
+      </c>
+      <c r="D3308" t="n">
+        <v>218.8300018310547</v>
+      </c>
+      <c r="E3308" t="n">
+        <v>219.2200012207031</v>
+      </c>
+      <c r="F3308" t="n">
+        <v>219.2200012207031</v>
+      </c>
+      <c r="G3308" t="n">
+        <v>120718400</v>
+      </c>
+    </row>
+    <row r="3309">
+      <c r="A3309" s="2" t="n">
+        <v>45156</v>
+      </c>
+      <c r="B3309" t="n">
+        <v>214.1199951171875</v>
+      </c>
+      <c r="C3309" t="n">
+        <v>217.5800018310547</v>
+      </c>
+      <c r="D3309" t="n">
+        <v>212.3600006103516</v>
+      </c>
+      <c r="E3309" t="n">
+        <v>215.4900054931641</v>
+      </c>
+      <c r="F3309" t="n">
+        <v>215.4900054931641</v>
+      </c>
+      <c r="G3309" t="n">
+        <v>135813700</v>
+      </c>
+    </row>
+    <row r="3310">
+      <c r="A3310" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="B3310" t="n">
+        <v>221.5500030517578</v>
+      </c>
+      <c r="C3310" t="n">
+        <v>232.1300048828125</v>
+      </c>
+      <c r="D3310" t="n">
+        <v>220.5800018310547</v>
+      </c>
+      <c r="E3310" t="n">
+        <v>231.2799987792969</v>
+      </c>
+      <c r="F3310" t="n">
+        <v>231.2799987792969</v>
+      </c>
+      <c r="G3310" t="n">
+        <v>135702700</v>
+      </c>
+    </row>
+    <row r="3311">
+      <c r="A3311" s="2" t="n">
+        <v>45160</v>
+      </c>
+      <c r="B3311" t="n">
+        <v>240.25</v>
+      </c>
+      <c r="C3311" t="n">
+        <v>240.8200073242188</v>
+      </c>
+      <c r="D3311" t="n">
+        <v>229.5500030517578</v>
+      </c>
+      <c r="E3311" t="n">
+        <v>233.1900024414062</v>
+      </c>
+      <c r="F3311" t="n">
+        <v>233.1900024414062</v>
+      </c>
+      <c r="G3311" t="n">
+        <v>130597900</v>
+      </c>
+    </row>
+    <row r="3312">
+      <c r="A3312" s="2" t="n">
+        <v>45161</v>
+      </c>
+      <c r="B3312" t="n">
+        <v>229.3399963378906</v>
+      </c>
+      <c r="C3312" t="n">
+        <v>238.9799957275391</v>
+      </c>
+      <c r="D3312" t="n">
+        <v>229.2899932861328</v>
+      </c>
+      <c r="E3312" t="n">
+        <v>236.8600006103516</v>
+      </c>
+      <c r="F3312" t="n">
+        <v>236.8600006103516</v>
+      </c>
+      <c r="G3312" t="n">
+        <v>101077600</v>
+      </c>
+    </row>
+    <row r="3313">
+      <c r="A3313" s="2" t="n">
+        <v>45162</v>
+      </c>
+      <c r="B3313" t="n">
+        <v>238.6600036621094</v>
+      </c>
+      <c r="C3313" t="n">
+        <v>238.9199981689453</v>
+      </c>
+      <c r="D3313" t="n">
+        <v>228.1799926757812</v>
+      </c>
+      <c r="E3313" t="n">
+        <v>230.0399932861328</v>
+      </c>
+      <c r="F3313" t="n">
+        <v>230.0399932861328</v>
+      </c>
+      <c r="G3313" t="n">
+        <v>99777400</v>
+      </c>
+    </row>
+    <row r="3314">
+      <c r="A3314" s="2" t="n">
+        <v>45163</v>
+      </c>
+      <c r="B3314" t="n">
+        <v>231.3099975585938</v>
+      </c>
+      <c r="C3314" t="n">
+        <v>239</v>
+      </c>
+      <c r="D3314" t="n">
+        <v>230.3500061035156</v>
+      </c>
+      <c r="E3314" t="n">
+        <v>238.5899963378906</v>
+      </c>
+      <c r="F3314" t="n">
+        <v>238.5899963378906</v>
+      </c>
+      <c r="G3314" t="n">
+        <v>106612200</v>
+      </c>
+    </row>
+    <row r="3315">
+      <c r="A3315" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="B3315" t="n">
+        <v>242.5800018310547</v>
+      </c>
+      <c r="C3315" t="n">
+        <v>244.3800048828125</v>
+      </c>
+      <c r="D3315" t="n">
+        <v>235.3500061035156</v>
+      </c>
+      <c r="E3315" t="n">
+        <v>238.8200073242188</v>
+      </c>
+      <c r="F3315" t="n">
+        <v>238.8200073242188</v>
+      </c>
+      <c r="G3315" t="n">
+        <v>107673700</v>
+      </c>
+    </row>
+    <row r="3316">
+      <c r="A3316" s="2" t="n">
+        <v>45167</v>
+      </c>
+      <c r="B3316" t="n">
+        <v>238.5800018310547</v>
+      </c>
+      <c r="C3316" t="n">
+        <v>257.4800109863281</v>
+      </c>
+      <c r="D3316" t="n">
+        <v>237.7700042724609</v>
+      </c>
+      <c r="E3316" t="n">
+        <v>257.1799926757812</v>
+      </c>
+      <c r="F3316" t="n">
+        <v>257.1799926757812</v>
+      </c>
+      <c r="G3316" t="n">
+        <v>134047600</v>
+      </c>
+    </row>
+    <row r="3317">
+      <c r="A3317" s="2" t="n">
+        <v>45168</v>
+      </c>
+      <c r="B3317" t="n">
+        <v>254.1999969482422</v>
+      </c>
+      <c r="C3317" t="n">
+        <v>260.510009765625</v>
+      </c>
+      <c r="D3317" t="n">
+        <v>250.5899963378906</v>
+      </c>
+      <c r="E3317" t="n">
+        <v>256.8999938964844</v>
+      </c>
+      <c r="F3317" t="n">
+        <v>256.8999938964844</v>
+      </c>
+      <c r="G3317" t="n">
+        <v>121988400</v>
+      </c>
+    </row>
+    <row r="3318">
+      <c r="A3318" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B3318" t="n">
+        <v>255.9799957275391</v>
+      </c>
+      <c r="C3318" t="n">
+        <v>261.1799926757812</v>
+      </c>
+      <c r="D3318" t="n">
+        <v>255.0500030517578</v>
+      </c>
+      <c r="E3318" t="n">
+        <v>258.0799865722656</v>
+      </c>
+      <c r="F3318" t="n">
+        <v>258.0799865722656</v>
+      </c>
+      <c r="G3318" t="n">
+        <v>108861700</v>
+      </c>
+    </row>
+    <row r="3319">
+      <c r="A3319" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B3319" t="n">
+        <v>257.260009765625</v>
+      </c>
+      <c r="C3319" t="n">
+        <v>259.0799865722656</v>
+      </c>
+      <c r="D3319" t="n">
+        <v>242.0099945068359</v>
+      </c>
+      <c r="E3319" t="n">
+        <v>245.0099945068359</v>
+      </c>
+      <c r="F3319" t="n">
+        <v>245.0099945068359</v>
+      </c>
+      <c r="G3319" t="n">
+        <v>132272500</v>
+      </c>
+    </row>
+    <row r="3320">
+      <c r="A3320" s="2" t="n">
+        <v>45174</v>
+      </c>
+      <c r="B3320" t="n">
+        <v>245</v>
+      </c>
+      <c r="C3320" t="n">
+        <v>258</v>
+      </c>
+      <c r="D3320" t="n">
+        <v>244.8600006103516</v>
+      </c>
+      <c r="E3320" t="n">
+        <v>256.489990234375</v>
+      </c>
+      <c r="F3320" t="n">
+        <v>256.489990234375</v>
+      </c>
+      <c r="G3320" t="n">
+        <v>129469600</v>
+      </c>
+    </row>
+    <row r="3321">
+      <c r="A3321" s="2" t="n">
+        <v>45175</v>
+      </c>
+      <c r="B3321" t="n">
+        <v>255.1399993896484</v>
+      </c>
+      <c r="C3321" t="n">
+        <v>255.3899993896484</v>
+      </c>
+      <c r="D3321" t="n">
+        <v>245.0599975585938</v>
+      </c>
+      <c r="E3321" t="n">
+        <v>251.9199981689453</v>
+      </c>
+      <c r="F3321" t="n">
+        <v>251.9199981689453</v>
+      </c>
+      <c r="G3321" t="n">
+        <v>116959800</v>
+      </c>
+    </row>
+    <row r="3322">
+      <c r="A3322" s="2" t="n">
+        <v>45176</v>
+      </c>
+      <c r="B3322" t="n">
+        <v>245.0700073242188</v>
+      </c>
+      <c r="C3322" t="n">
+        <v>252.8099975585938</v>
+      </c>
+      <c r="D3322" t="n">
+        <v>243.2700042724609</v>
+      </c>
+      <c r="E3322" t="n">
+        <v>251.4900054931641</v>
+      </c>
+      <c r="F3322" t="n">
+        <v>251.4900054931641</v>
+      </c>
+      <c r="G3322" t="n">
+        <v>115312900</v>
+      </c>
+    </row>
+    <row r="3323">
+      <c r="A3323" s="2" t="n">
+        <v>45177</v>
+      </c>
+      <c r="B3323" t="n">
+        <v>251.2200012207031</v>
+      </c>
+      <c r="C3323" t="n">
+        <v>256.5199890136719</v>
+      </c>
+      <c r="D3323" t="n">
+        <v>246.6699981689453</v>
+      </c>
+      <c r="E3323" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="F3323" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="G3323" t="n">
+        <v>118367700</v>
+      </c>
+    </row>
+    <row r="3324">
+      <c r="A3324" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="B3324" t="n">
+        <v>264.2699890136719</v>
+      </c>
+      <c r="C3324" t="n">
+        <v>274.8500061035156</v>
+      </c>
+      <c r="D3324" t="n">
+        <v>260.6099853515625</v>
+      </c>
+      <c r="E3324" t="n">
+        <v>273.5799865722656</v>
+      </c>
+      <c r="F3324" t="n">
+        <v>273.5799865722656</v>
+      </c>
+      <c r="G3324" t="n">
+        <v>174667900</v>
+      </c>
+    </row>
+    <row r="3325">
+      <c r="A3325" s="2" t="n">
+        <v>45181</v>
+      </c>
+      <c r="B3325" t="n">
+        <v>270.760009765625</v>
+      </c>
+      <c r="C3325" t="n">
+        <v>278.3900146484375</v>
+      </c>
+      <c r="D3325" t="n">
+        <v>266.6000061035156</v>
+      </c>
+      <c r="E3325" t="n">
+        <v>267.4800109863281</v>
+      </c>
+      <c r="F3325" t="n">
+        <v>267.4800109863281</v>
+      </c>
+      <c r="G3325" t="n">
+        <v>135999900</v>
+      </c>
+    </row>
+    <row r="3326">
+      <c r="A3326" s="2" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B3326" t="n">
+        <v>270.0700073242188</v>
+      </c>
+      <c r="C3326" t="n">
+        <v>274.9800109863281</v>
+      </c>
+      <c r="D3326" t="n">
+        <v>268.1000061035156</v>
+      </c>
+      <c r="E3326" t="n">
+        <v>271.2999877929688</v>
+      </c>
+      <c r="F3326" t="n">
+        <v>271.2999877929688</v>
+      </c>
+      <c r="G3326" t="n">
+        <v>111673700</v>
+      </c>
+    </row>
+    <row r="3327">
+      <c r="A3327" s="2" t="n">
+        <v>45183</v>
+      </c>
+      <c r="B3327" t="n">
+        <v>271.3200073242188</v>
+      </c>
+      <c r="C3327" t="n">
+        <v>276.7099914550781</v>
+      </c>
+      <c r="D3327" t="n">
+        <v>270.4200134277344</v>
+      </c>
+      <c r="E3327" t="n">
+        <v>276.0400085449219</v>
+      </c>
+      <c r="F3327" t="n">
+        <v>276.0400085449219</v>
+      </c>
+      <c r="G3327" t="n">
+        <v>107709800</v>
+      </c>
+    </row>
+    <row r="3328">
+      <c r="A3328" s="2" t="n">
+        <v>45184</v>
+      </c>
+      <c r="B3328" t="n">
+        <v>277.5499877929688</v>
+      </c>
+      <c r="C3328" t="n">
+        <v>278.9800109863281</v>
+      </c>
+      <c r="D3328" t="n">
+        <v>271</v>
+      </c>
+      <c r="E3328" t="n">
+        <v>274.3900146484375</v>
+      </c>
+      <c r="F3328" t="n">
+        <v>274.3900146484375</v>
+      </c>
+      <c r="G3328" t="n">
+        <v>133422800</v>
+      </c>
+    </row>
+    <row r="3329">
+      <c r="A3329" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="B3329" t="n">
+        <v>271.1600036621094</v>
+      </c>
+      <c r="C3329" t="n">
+        <v>271.4400024414062</v>
+      </c>
+      <c r="D3329" t="n">
+        <v>263.760009765625</v>
+      </c>
+      <c r="E3329" t="n">
+        <v>265.2799987792969</v>
+      </c>
+      <c r="F3329" t="n">
+        <v>265.2799987792969</v>
+      </c>
+      <c r="G3329" t="n">
+        <v>101543300</v>
+      </c>
+    </row>
+    <row r="3330">
+      <c r="A3330" s="2" t="n">
+        <v>45188</v>
+      </c>
+      <c r="B3330" t="n">
+        <v>264.3500061035156</v>
+      </c>
+      <c r="C3330" t="n">
+        <v>267.8500061035156</v>
+      </c>
+      <c r="D3330" t="n">
+        <v>261.2000122070312</v>
+      </c>
+      <c r="E3330" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="F3330" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="G3330" t="n">
+        <v>103704000</v>
+      </c>
+    </row>
+    <row r="3331">
+      <c r="A3331" s="2" t="n">
+        <v>45189</v>
+      </c>
+      <c r="B3331" t="n">
+        <v>267.0400085449219</v>
+      </c>
+      <c r="C3331" t="n">
+        <v>273.9299926757812</v>
+      </c>
+      <c r="D3331" t="n">
+        <v>262.4599914550781</v>
+      </c>
+      <c r="E3331" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="F3331" t="n">
+        <v>262.5899963378906</v>
+      </c>
+      <c r="G3331" t="n">
+        <v>122514600</v>
+      </c>
+    </row>
+    <row r="3332">
+      <c r="A3332" s="2" t="n">
+        <v>45190</v>
+      </c>
+      <c r="B3332" t="n">
+        <v>257.8500061035156</v>
+      </c>
+      <c r="C3332" t="n">
+        <v>260.8599853515625</v>
+      </c>
+      <c r="D3332" t="n">
+        <v>254.2100067138672</v>
+      </c>
+      <c r="E3332" t="n">
+        <v>255.6999969482422</v>
+      </c>
+      <c r="F3332" t="n">
+        <v>255.6999969482422</v>
+      </c>
+      <c r="G3332" t="n">
+        <v>119531000</v>
+      </c>
+    </row>
+    <row r="3333">
+      <c r="A3333" s="2" t="n">
+        <v>45191</v>
+      </c>
+      <c r="B3333" t="n">
+        <v>257.3999938964844</v>
+      </c>
+      <c r="C3333" t="n">
+        <v>257.7900085449219</v>
+      </c>
+      <c r="D3333" t="n">
+        <v>244.4799957275391</v>
+      </c>
+      <c r="E3333" t="n">
+        <v>244.8800048828125</v>
+      </c>
+      <c r="F3333" t="n">
+        <v>244.8800048828125</v>
+      </c>
+      <c r="G3333" t="n">
+        <v>127524100</v>
+      </c>
+    </row>
+    <row r="3334">
+      <c r="A3334" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="B3334" t="n">
+        <v>243.3800048828125</v>
+      </c>
+      <c r="C3334" t="n">
+        <v>247.1000061035156</v>
+      </c>
+      <c r="D3334" t="n">
+        <v>238.3099975585938</v>
+      </c>
+      <c r="E3334" t="n">
+        <v>246.9900054931641</v>
+      </c>
+      <c r="F3334" t="n">
+        <v>246.9900054931641</v>
+      </c>
+      <c r="G3334" t="n">
+        <v>104636600</v>
+      </c>
+    </row>
+    <row r="3335">
+      <c r="A3335" s="2" t="n">
+        <v>45195</v>
+      </c>
+      <c r="B3335" t="n">
+        <v>242.9799957275391</v>
+      </c>
+      <c r="C3335" t="n">
+        <v>249.5500030517578</v>
+      </c>
+      <c r="D3335" t="n">
+        <v>241.6600036621094</v>
+      </c>
+      <c r="E3335" t="n">
+        <v>244.1199951171875</v>
+      </c>
+      <c r="F3335" t="n">
+        <v>244.1199951171875</v>
+      </c>
+      <c r="G3335" t="n">
+        <v>101993600</v>
+      </c>
+    </row>
+    <row r="3336">
+      <c r="A3336" s="2" t="n">
+        <v>45196</v>
+      </c>
+      <c r="B3336" t="n">
+        <v>244.2599945068359</v>
+      </c>
+      <c r="C3336" t="n">
+        <v>245.3300018310547</v>
+      </c>
+      <c r="D3336" t="n">
+        <v>234.5800018310547</v>
+      </c>
+      <c r="E3336" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="F3336" t="n">
+        <v>240.5</v>
+      </c>
+      <c r="G3336" t="n">
+        <v>136597200</v>
+      </c>
+    </row>
+    <row r="3337">
+      <c r="A3337" s="2" t="n">
+        <v>45197</v>
+      </c>
+      <c r="B3337" t="n">
+        <v>240.0200042724609</v>
+      </c>
+      <c r="C3337" t="n">
+        <v>247.5500030517578</v>
+      </c>
+      <c r="D3337" t="n">
+        <v>238.6499938964844</v>
+      </c>
+      <c r="E3337" t="n">
+        <v>246.3800048828125</v>
+      </c>
+      <c r="F3337" t="n">
+        <v>246.3800048828125</v>
+      </c>
+      <c r="G3337" t="n">
+        <v>117058900</v>
+      </c>
+    </row>
+    <row r="3338">
+      <c r="A3338" s="2" t="n">
+        <v>45198</v>
+      </c>
+      <c r="B3338" t="n">
+        <v>250</v>
+      </c>
+      <c r="C3338" t="n">
+        <v>254.7700042724609</v>
+      </c>
+      <c r="D3338" t="n">
+        <v>246.3500061035156</v>
+      </c>
+      <c r="E3338" t="n">
+        <v>250.2200012207031</v>
+      </c>
+      <c r="F3338" t="n">
+        <v>250.2200012207031</v>
+      </c>
+      <c r="G3338" t="n">
+        <v>128346200</v>
+      </c>
+    </row>
+    <row r="3339">
+      <c r="A3339" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="B3339" t="n">
+        <v>244.8099975585938</v>
+      </c>
+      <c r="C3339" t="n">
+        <v>254.2799987792969</v>
+      </c>
+      <c r="D3339" t="n">
+        <v>242.6199951171875</v>
+      </c>
+      <c r="E3339" t="n">
+        <v>251.6000061035156</v>
+      </c>
+      <c r="F3339" t="n">
+        <v>251.6000061035156</v>
+      </c>
+      <c r="G3339" t="n">
+        <v>123810400</v>
+      </c>
+    </row>
+    <row r="3340">
+      <c r="A3340" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="B3340" t="n">
+        <v>248.6100006103516</v>
+      </c>
+      <c r="C3340" t="n">
+        <v>250.0200042724609</v>
+      </c>
+      <c r="D3340" t="n">
+        <v>244.4499969482422</v>
+      </c>
+      <c r="E3340" t="n">
+        <v>246.5299987792969</v>
+      </c>
+      <c r="F3340" t="n">
+        <v>246.5299987792969</v>
+      </c>
+      <c r="G3340" t="n">
+        <v>101985300</v>
+      </c>
+    </row>
+    <row r="3341">
+      <c r="A3341" s="2" t="n">
+        <v>45203</v>
+      </c>
+      <c r="B3341" t="n">
+        <v>248.1399993896484</v>
+      </c>
+      <c r="C3341" t="n">
+        <v>261.8599853515625</v>
+      </c>
+      <c r="D3341" t="n">
+        <v>247.6000061035156</v>
+      </c>
+      <c r="E3341" t="n">
+        <v>261.1600036621094</v>
+      </c>
+      <c r="F3341" t="n">
+        <v>261.1600036621094</v>
+      </c>
+      <c r="G3341" t="n">
+        <v>129721600</v>
+      </c>
+    </row>
+    <row r="3342">
+      <c r="A3342" s="2" t="n">
+        <v>45204</v>
+      </c>
+      <c r="B3342" t="n">
+        <v>260</v>
+      </c>
+      <c r="C3342" t="n">
+        <v>263.6000061035156</v>
+      </c>
+      <c r="D3342" t="n">
+        <v>256.25</v>
+      </c>
+      <c r="E3342" t="n">
+        <v>260.0499877929688</v>
+      </c>
+      <c r="F3342" t="n">
+        <v>260.0499877929688</v>
+      </c>
+      <c r="G3342" t="n">
+        <v>119159200</v>
+      </c>
+    </row>
+    <row r="3343">
+      <c r="A3343" s="2" t="n">
+        <v>45205</v>
+      </c>
+      <c r="B3343" t="n">
+        <v>253.9799957275391</v>
+      </c>
+      <c r="C3343" t="n">
+        <v>261.6499938964844</v>
+      </c>
+      <c r="D3343" t="n">
+        <v>250.6499938964844</v>
+      </c>
+      <c r="E3343" t="n">
+        <v>260.5299987792969</v>
+      </c>
+      <c r="F3343" t="n">
+        <v>260.5299987792969</v>
+      </c>
+      <c r="G3343" t="n">
+        <v>117947000</v>
+      </c>
+    </row>
+    <row r="3344">
+      <c r="A3344" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="B3344" t="n">
+        <v>255.3099975585938</v>
+      </c>
+      <c r="C3344" t="n">
+        <v>261.3599853515625</v>
+      </c>
+      <c r="D3344" t="n">
+        <v>252.0500030517578</v>
+      </c>
+      <c r="E3344" t="n">
+        <v>259.6700134277344</v>
+      </c>
+      <c r="F3344" t="n">
+        <v>259.6700134277344</v>
+      </c>
+      <c r="G3344" t="n">
+        <v>101377900</v>
+      </c>
+    </row>
+    <row r="3345">
+      <c r="A3345" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="B3345" t="n">
+        <v>257.75</v>
+      </c>
+      <c r="C3345" t="n">
+        <v>268.9400024414062</v>
+      </c>
+      <c r="D3345" t="n">
+        <v>257.6499938964844</v>
+      </c>
+      <c r="E3345" t="n">
+        <v>263.6199951171875</v>
+      </c>
+      <c r="F3345" t="n">
+        <v>263.6199951171875</v>
+      </c>
+      <c r="G3345" t="n">
+        <v>122656000</v>
+      </c>
+    </row>
+    <row r="3346">
+      <c r="A3346" s="2" t="n">
+        <v>45210</v>
+      </c>
+      <c r="B3346" t="n">
+        <v>266.2000122070312</v>
+      </c>
+      <c r="C3346" t="n">
+        <v>268.6000061035156</v>
+      </c>
+      <c r="D3346" t="n">
+        <v>260.8999938964844</v>
+      </c>
+      <c r="E3346" t="n">
+        <v>262.989990234375</v>
+      </c>
+      <c r="F3346" t="n">
+        <v>262.989990234375</v>
+      </c>
+      <c r="G3346" t="n">
+        <v>103706300</v>
+      </c>
+    </row>
+    <row r="3347">
+      <c r="A3347" s="2" t="n">
+        <v>45211</v>
+      </c>
+      <c r="B3347" t="n">
+        <v>262.9200134277344</v>
+      </c>
+      <c r="C3347" t="n">
+        <v>265.4100036621094</v>
+      </c>
+      <c r="D3347" t="n">
+        <v>256.6300048828125</v>
+      </c>
+      <c r="E3347" t="n">
+        <v>258.8699951171875</v>
+      </c>
+      <c r="F3347" t="n">
+        <v>258.8699951171875</v>
+      </c>
+      <c r="G3347" t="n">
+        <v>111508100</v>
+      </c>
+    </row>
+    <row r="3348">
+      <c r="A3348" s="2" t="n">
+        <v>45212</v>
+      </c>
+      <c r="B3348" t="n">
+        <v>258.8999938964844</v>
+      </c>
+      <c r="C3348" t="n">
+        <v>259.6000061035156</v>
+      </c>
+      <c r="D3348" t="n">
+        <v>250.2200012207031</v>
+      </c>
+      <c r="E3348" t="n">
+        <v>251.1199951171875</v>
+      </c>
+      <c r="F3348" t="n">
+        <v>251.1199951171875</v>
+      </c>
+      <c r="G3348" t="n">
+        <v>102073800</v>
+      </c>
+    </row>
+    <row r="3349">
+      <c r="A3349" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="B3349" t="n">
+        <v>250.0500030517578</v>
+      </c>
+      <c r="C3349" t="n">
+        <v>255.3999938964844</v>
+      </c>
+      <c r="D3349" t="n">
+        <v>248.4799957275391</v>
+      </c>
+      <c r="E3349" t="n">
+        <v>253.9199981689453</v>
+      </c>
+      <c r="F3349" t="n">
+        <v>253.9199981689453</v>
+      </c>
+      <c r="G3349" t="n">
+        <v>88917200</v>
+      </c>
+    </row>
+    <row r="3350">
+      <c r="A3350" s="2" t="n">
+        <v>45216</v>
+      </c>
+      <c r="B3350" t="n">
+        <v>250.1000061035156</v>
+      </c>
+      <c r="C3350" t="n">
+        <v>257.1799926757812</v>
+      </c>
+      <c r="D3350" t="n">
+        <v>247.0800018310547</v>
+      </c>
+      <c r="E3350" t="n">
+        <v>254.8500061035156</v>
+      </c>
+      <c r="F3350" t="n">
+        <v>254.8500061035156</v>
+      </c>
+      <c r="G3350" t="n">
+        <v>93562900</v>
+      </c>
+    </row>
+    <row r="3351">
+      <c r="A3351" s="2" t="n">
+        <v>45217</v>
+      </c>
+      <c r="B3351" t="n">
+        <v>252.6999969482422</v>
+      </c>
+      <c r="C3351" t="n">
+        <v>254.6300048828125</v>
+      </c>
+      <c r="D3351" t="n">
+        <v>242.0800018310547</v>
+      </c>
+      <c r="E3351" t="n">
+        <v>242.6799926757812</v>
+      </c>
+      <c r="F3351" t="n">
+        <v>242.6799926757812</v>
+      </c>
+      <c r="G3351" t="n">
+        <v>125147800</v>
+      </c>
+    </row>
+    <row r="3352">
+      <c r="A3352" s="2" t="n">
+        <v>45218</v>
+      </c>
+      <c r="B3352" t="n">
+        <v>225.9499969482422</v>
+      </c>
+      <c r="C3352" t="n">
+        <v>230.6100006103516</v>
+      </c>
+      <c r="D3352" t="n">
+        <v>216.7799987792969</v>
+      </c>
+      <c r="E3352" t="n">
+        <v>220.1100006103516</v>
+      </c>
+      <c r="F3352" t="n">
+        <v>220.1100006103516</v>
+      </c>
+      <c r="G3352" t="n">
+        <v>170772700</v>
+      </c>
+    </row>
+    <row r="3353">
+      <c r="A3353" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="B3353" t="n">
+        <v>217.0099945068359</v>
+      </c>
+      <c r="C3353" t="n">
+        <v>218.8600006103516</v>
+      </c>
+      <c r="D3353" t="n">
+        <v>210.4199981689453</v>
+      </c>
+      <c r="E3353" t="n">
+        <v>211.9900054931641</v>
+      </c>
+      <c r="F3353" t="n">
+        <v>211.9900054931641</v>
+      </c>
+      <c r="G3353" t="n">
+        <v>137734000</v>
+      </c>
+    </row>
+    <row r="3354">
+      <c r="A3354" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="B3354" t="n">
+        <v>210</v>
+      </c>
+      <c r="C3354" t="n">
+        <v>216.9799957275391</v>
+      </c>
+      <c r="D3354" t="n">
+        <v>202.5099945068359</v>
+      </c>
+      <c r="E3354" t="n">
+        <v>212.0800018310547</v>
+      </c>
+      <c r="F3354" t="n">
+        <v>212.0800018310547</v>
+      </c>
+      <c r="G3354" t="n">
+        <v>150683400</v>
+      </c>
+    </row>
+    <row r="3355">
+      <c r="A3355" s="2" t="n">
+        <v>45223</v>
+      </c>
+      <c r="B3355" t="n">
+        <v>216.5</v>
+      </c>
+      <c r="C3355" t="n">
+        <v>222.0500030517578</v>
+      </c>
+      <c r="D3355" t="n">
+        <v>214.1100006103516</v>
+      </c>
+      <c r="E3355" t="n">
+        <v>216.5200042724609</v>
+      </c>
+      <c r="F3355" t="n">
+        <v>216.5200042724609</v>
+      </c>
+      <c r="G3355" t="n">
+        <v>118231100</v>
+      </c>
+    </row>
+    <row r="3356">
+      <c r="A3356" s="2" t="n">
+        <v>45224</v>
+      </c>
+      <c r="B3356" t="n">
+        <v>215.8800048828125</v>
+      </c>
+      <c r="C3356" t="n">
+        <v>220.1000061035156</v>
+      </c>
+      <c r="D3356" t="n">
+        <v>212.1999969482422</v>
+      </c>
+      <c r="E3356" t="n">
+        <v>212.4199981689453</v>
+      </c>
+      <c r="F3356" t="n">
+        <v>212.4199981689453</v>
+      </c>
+      <c r="G3356" t="n">
+        <v>107065100</v>
+      </c>
+    </row>
+    <row r="3357">
+      <c r="A3357" s="2" t="n">
+        <v>45225</v>
+      </c>
+      <c r="B3357" t="n">
+        <v>211.3200073242188</v>
+      </c>
+      <c r="C3357" t="n">
+        <v>214.8000030517578</v>
+      </c>
+      <c r="D3357" t="n">
+        <v>204.8800048828125</v>
+      </c>
+      <c r="E3357" t="n">
+        <v>205.7599945068359</v>
+      </c>
+      <c r="F3357" t="n">
+        <v>205.7599945068359</v>
+      </c>
+      <c r="G3357" t="n">
+        <v>115112600</v>
+      </c>
+    </row>
+    <row r="3358">
+      <c r="A3358" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="B3358" t="n">
+        <v>210.6000061035156</v>
+      </c>
+      <c r="C3358" t="n">
+        <v>212.4100036621094</v>
+      </c>
+      <c r="D3358" t="n">
+        <v>205.7700042724609</v>
+      </c>
+      <c r="E3358" t="n">
+        <v>207.3000030517578</v>
+      </c>
+      <c r="F3358" t="n">
+        <v>207.3000030517578</v>
+      </c>
+      <c r="G3358" t="n">
+        <v>94881200</v>
+      </c>
+    </row>
+    <row r="3359">
+      <c r="A3359" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="B3359" t="n">
+        <v>209.2799987792969</v>
+      </c>
+      <c r="C3359" t="n">
+        <v>210.8800048828125</v>
+      </c>
+      <c r="D3359" t="n">
+        <v>194.6699981689453</v>
+      </c>
+      <c r="E3359" t="n">
+        <v>197.3600006103516</v>
+      </c>
+      <c r="F3359" t="n">
+        <v>197.3600006103516</v>
+      </c>
+      <c r="G3359" t="n">
+        <v>136448200</v>
+      </c>
+    </row>
+    <row r="3360">
+      <c r="A3360" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B3360" t="n">
+        <v>196.1199951171875</v>
+      </c>
+      <c r="C3360" t="n">
+        <v>202.8000030517578</v>
+      </c>
+      <c r="D3360" t="n">
+        <v>194.0700073242188</v>
+      </c>
+      <c r="E3360" t="n">
+        <v>200.8399963378906</v>
+      </c>
+      <c r="F3360" t="n">
+        <v>200.8399963378906</v>
+      </c>
+      <c r="G3360" t="n">
+        <v>118068300</v>
+      </c>
+    </row>
+    <row r="3361">
+      <c r="A3361" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B3361" t="n">
+        <v>204.0399932861328</v>
+      </c>
+      <c r="C3361" t="n">
+        <v>205.9900054931641</v>
+      </c>
+      <c r="D3361" t="n">
+        <v>197.8500061035156</v>
+      </c>
+      <c r="E3361" t="n">
+        <v>205.6600036621094</v>
+      </c>
+      <c r="F3361" t="n">
+        <v>205.6600036621094</v>
+      </c>
+      <c r="G3361" t="n">
+        <v>121661700</v>
+      </c>
+    </row>
+    <row r="3362">
+      <c r="A3362" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="B3362" t="n">
+        <v>212.9700012207031</v>
+      </c>
+      <c r="C3362" t="n">
+        <v>219.1999969482422</v>
+      </c>
+      <c r="D3362" t="n">
+        <v>211.4499969482422</v>
+      </c>
+      <c r="E3362" t="n">
+        <v>218.5099945068359</v>
+      </c>
+      <c r="F3362" t="n">
+        <v>218.5099945068359</v>
+      </c>
+      <c r="G3362" t="n">
+        <v>125987600</v>
+      </c>
+    </row>
+    <row r="3363">
+      <c r="A3363" s="2" t="n">
+        <v>45233</v>
+      </c>
+      <c r="B3363" t="n">
+        <v>221.1499938964844</v>
+      </c>
+      <c r="C3363" t="n">
+        <v>226.3699951171875</v>
+      </c>
+      <c r="D3363" t="n">
+        <v>218.3999938964844</v>
+      </c>
+      <c r="E3363" t="n">
+        <v>219.9600067138672</v>
+      </c>
+      <c r="F3363" t="n">
+        <v>219.9600067138672</v>
+      </c>
+      <c r="G3363" t="n">
+        <v>119281000</v>
+      </c>
+    </row>
+    <row r="3364">
+      <c r="A3364" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="B3364" t="n">
+        <v>223.9799957275391</v>
+      </c>
+      <c r="C3364" t="n">
+        <v>226.3200073242188</v>
+      </c>
+      <c r="D3364" t="n">
+        <v>215</v>
+      </c>
+      <c r="E3364" t="n">
+        <v>219.2700042724609</v>
+      </c>
+      <c r="F3364" t="n">
+        <v>219.2700042724609</v>
+      </c>
+      <c r="G3364" t="n">
+        <v>117335800</v>
+      </c>
+    </row>
+    <row r="3365">
+      <c r="A3365" s="2" t="n">
+        <v>45237</v>
+      </c>
+      <c r="B3365" t="n">
+        <v>219.9799957275391</v>
+      </c>
+      <c r="C3365" t="n">
+        <v>223.1199951171875</v>
+      </c>
+      <c r="D3365" t="n">
+        <v>215.7200012207031</v>
+      </c>
+      <c r="E3365" t="n">
+        <v>222.1799926757812</v>
+      </c>
+      <c r="F3365" t="n">
+        <v>222.1799926757812</v>
+      </c>
+      <c r="G3365" t="n">
+        <v>116900100</v>
+      </c>
+    </row>
+    <row r="3366">
+      <c r="A3366" s="2" t="n">
+        <v>45238</v>
+      </c>
+      <c r="B3366" t="n">
+        <v>223.1499938964844</v>
+      </c>
+      <c r="C3366" t="n">
+        <v>224.1499938964844</v>
+      </c>
+      <c r="D3366" t="n">
+        <v>217.6399993896484</v>
+      </c>
+      <c r="E3366" t="n">
+        <v>222.1100006103516</v>
+      </c>
+      <c r="F3366" t="n">
+        <v>222.1100006103516</v>
+      </c>
+      <c r="G3366" t="n">
+        <v>106584800</v>
+      </c>
+    </row>
+    <row r="3367">
+      <c r="A3367" s="2" t="n">
+        <v>45239</v>
+      </c>
+      <c r="B3367" t="n">
+        <v>219.75</v>
+      </c>
+      <c r="C3367" t="n">
+        <v>220.8000030517578</v>
+      </c>
+      <c r="D3367" t="n">
+        <v>206.6799926757812</v>
+      </c>
+      <c r="E3367" t="n">
+        <v>209.9799957275391</v>
+      </c>
+      <c r="F3367" t="n">
+        <v>209.9799957275391</v>
+      </c>
+      <c r="G3367" t="n">
+        <v>142110500</v>
+      </c>
+    </row>
+    <row r="3368">
+      <c r="A3368" s="2" t="n">
+        <v>45240</v>
+      </c>
+      <c r="B3368" t="n">
+        <v>210.0299987792969</v>
+      </c>
+      <c r="C3368" t="n">
+        <v>215.3800048828125</v>
+      </c>
+      <c r="D3368" t="n">
+        <v>205.6900024414062</v>
+      </c>
+      <c r="E3368" t="n">
+        <v>214.6499938964844</v>
+      </c>
+      <c r="F3368" t="n">
+        <v>214.6499938964844</v>
+      </c>
+      <c r="G3368" t="n">
+        <v>130994000</v>
+      </c>
+    </row>
+    <row r="3369">
+      <c r="A3369" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="B3369" t="n">
+        <v>215.6000061035156</v>
+      </c>
+      <c r="C3369" t="n">
+        <v>225.3999938964844</v>
+      </c>
+      <c r="D3369" t="n">
+        <v>211.6100006103516</v>
+      </c>
+      <c r="E3369" t="n">
+        <v>223.7100067138672</v>
+      </c>
+      <c r="F3369" t="n">
+        <v>223.7100067138672</v>
+      </c>
+      <c r="G3369" t="n">
+        <v>140447600</v>
+      </c>
+    </row>
+    <row r="3370">
+      <c r="A3370" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="B3370" t="n">
+        <v>235.0299987792969</v>
+      </c>
+      <c r="C3370" t="n">
+        <v>238.1399993896484</v>
+      </c>
+      <c r="D3370" t="n">
+        <v>230.7200012207031</v>
+      </c>
+      <c r="E3370" t="n">
+        <v>237.4100036621094</v>
+      </c>
+      <c r="F3370" t="n">
+        <v>237.4100036621094</v>
+      </c>
+      <c r="G3370" t="n">
+        <v>149771600</v>
+      </c>
+    </row>
+    <row r="3371">
+      <c r="A3371" s="2" t="n">
+        <v>45245</v>
+      </c>
+      <c r="B3371" t="n">
+        <v>239.2899932861328</v>
+      </c>
+      <c r="C3371" t="n">
+        <v>246.6999969482422</v>
+      </c>
+      <c r="D3371" t="n">
+        <v>236.4499969482422</v>
+      </c>
+      <c r="E3371" t="n">
+        <v>242.8399963378906</v>
+      </c>
+      <c r="F3371" t="n">
+        <v>242.8399963378906</v>
+      </c>
+      <c r="G3371" t="n">
+        <v>150354000</v>
+      </c>
+    </row>
+    <row r="3372">
+      <c r="A3372" s="2" t="n">
+        <v>45246</v>
+      </c>
+      <c r="B3372" t="n">
+        <v>239.4900054931641</v>
+      </c>
+      <c r="C3372" t="n">
+        <v>240.8800048828125</v>
+      </c>
+      <c r="D3372" t="n">
+        <v>230.9600067138672</v>
+      </c>
+      <c r="E3372" t="n">
+        <v>233.5899963378906</v>
+      </c>
+      <c r="F3372" t="n">
+        <v>233.5899963378906</v>
+      </c>
+      <c r="G3372" t="n">
+        <v>136816800</v>
+      </c>
+    </row>
+    <row r="3373">
+      <c r="A3373" s="2" t="n">
+        <v>45247</v>
+      </c>
+      <c r="B3373" t="n">
+        <v>232</v>
+      </c>
+      <c r="C3373" t="n">
+        <v>237.3899993896484</v>
+      </c>
+      <c r="D3373" t="n">
+        <v>226.5399932861328</v>
+      </c>
+      <c r="E3373" t="n">
+        <v>234.3000030517578</v>
+      </c>
+      <c r="F3373" t="n">
+        <v>234.3000030517578</v>
+      </c>
+      <c r="G3373" t="n">
+        <v>142532800</v>
+      </c>
+    </row>
+    <row r="3374">
+      <c r="A3374" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="B3374" t="n">
+        <v>234.0399932861328</v>
+      </c>
+      <c r="C3374" t="n">
+        <v>237.1000061035156</v>
+      </c>
+      <c r="D3374" t="n">
+        <v>231.0200042724609</v>
+      </c>
+      <c r="E3374" t="n">
+        <v>235.6000061035156</v>
+      </c>
+      <c r="F3374" t="n">
+        <v>235.6000061035156</v>
+      </c>
+      <c r="G3374" t="n">
+        <v>116320100</v>
+      </c>
+    </row>
+    <row r="3375">
+      <c r="A3375" s="2" t="n">
+        <v>45251</v>
+      </c>
+      <c r="B3375" t="n">
+        <v>235.0399932861328</v>
+      </c>
+      <c r="C3375" t="n">
+        <v>243.6199951171875</v>
+      </c>
+      <c r="D3375" t="n">
+        <v>233.3399963378906</v>
+      </c>
+      <c r="E3375" t="n">
+        <v>241.1999969482422</v>
+      </c>
+      <c r="F3375" t="n">
+        <v>241.1999969482422</v>
+      </c>
+      <c r="G3375" t="n">
+        <v>122288000</v>
+      </c>
+    </row>
+    <row r="3376">
+      <c r="A3376" s="2" t="n">
+        <v>45252</v>
+      </c>
+      <c r="B3376" t="n">
+        <v>242.0399932861328</v>
+      </c>
+      <c r="C3376" t="n">
+        <v>244.0099945068359</v>
+      </c>
+      <c r="D3376" t="n">
+        <v>231.3999938964844</v>
+      </c>
+      <c r="E3376" t="n">
+        <v>234.2100067138672</v>
+      </c>
+      <c r="F3376" t="n">
+        <v>234.2100067138672</v>
+      </c>
+      <c r="G3376" t="n">
+        <v>117950600</v>
+      </c>
+    </row>
+    <row r="3377">
+      <c r="A3377" s="2" t="n">
+        <v>45254</v>
+      </c>
+      <c r="B3377" t="n">
+        <v>233.75</v>
+      </c>
+      <c r="C3377" t="n">
+        <v>238.75</v>
+      </c>
+      <c r="D3377" t="n">
+        <v>232.3300018310547</v>
+      </c>
+      <c r="E3377" t="n">
+        <v>235.4499969482422</v>
+      </c>
+      <c r="F3377" t="n">
+        <v>235.4499969482422</v>
+      </c>
+      <c r="G3377" t="n">
+        <v>65125200</v>
+      </c>
+    </row>
+    <row r="3378">
+      <c r="A3378" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="B3378" t="n">
+        <v>236.8899993896484</v>
+      </c>
+      <c r="C3378" t="n">
+        <v>238.3300018310547</v>
+      </c>
+      <c r="D3378" t="n">
+        <v>232.1000061035156</v>
+      </c>
+      <c r="E3378" t="n">
+        <v>236.0800018310547</v>
+      </c>
+      <c r="F3378" t="n">
+        <v>236.0800018310547</v>
+      </c>
+      <c r="G3378" t="n">
+        <v>112031800</v>
+      </c>
+    </row>
+    <row r="3379">
+      <c r="A3379" s="2" t="n">
+        <v>45258</v>
+      </c>
+      <c r="B3379" t="n">
+        <v>236.6799926757812</v>
+      </c>
+      <c r="C3379" t="n">
+        <v>247</v>
+      </c>
+      <c r="D3379" t="n">
+        <v>234.0099945068359</v>
+      </c>
+      <c r="E3379" t="n">
+        <v>246.7200012207031</v>
+      </c>
+      <c r="F3379" t="n">
+        <v>246.7200012207031</v>
+      </c>
+      <c r="G3379" t="n">
+        <v>148549900</v>
+      </c>
+    </row>
+    <row r="3380">
+      <c r="A3380" s="2" t="n">
+        <v>45259</v>
+      </c>
+      <c r="B3380" t="n">
+        <v>249.2100067138672</v>
+      </c>
+      <c r="C3380" t="n">
+        <v>252.75</v>
+      </c>
+      <c r="D3380" t="n">
+        <v>242.7599945068359</v>
+      </c>
+      <c r="E3380" t="n">
+        <v>244.1399993896484</v>
+      </c>
+      <c r="F3380" t="n">
+        <v>244.1399993896484</v>
+      </c>
+      <c r="G3380" t="n">
+        <v>135401300</v>
+      </c>
+    </row>
+    <row r="3381">
+      <c r="A3381" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B3381" t="n">
+        <v>245.1399993896484</v>
+      </c>
+      <c r="C3381" t="n">
+        <v>245.2200012207031</v>
+      </c>
+      <c r="D3381" t="n">
+        <v>236.9100036621094</v>
+      </c>
+      <c r="E3381" t="n">
+        <v>240.0800018310547</v>
+      </c>
+      <c r="F3381" t="n">
+        <v>240.0800018310547</v>
+      </c>
+      <c r="G3381" t="n">
+        <v>132353200</v>
+      </c>
+    </row>
+    <row r="3382">
+      <c r="A3382" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B3382" t="n">
+        <v>233.1399993896484</v>
+      </c>
+      <c r="C3382" t="n">
+        <v>240.1900024414062</v>
+      </c>
+      <c r="D3382" t="n">
+        <v>231.8999938964844</v>
+      </c>
+      <c r="E3382" t="n">
+        <v>238.8300018310547</v>
+      </c>
+      <c r="F3382" t="n">
+        <v>238.8300018310547</v>
+      </c>
+      <c r="G3382" t="n">
+        <v>121173500</v>
+      </c>
+    </row>
+    <row r="3383">
+      <c r="A3383" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="B3383" t="n">
+        <v>235.75</v>
+      </c>
+      <c r="C3383" t="n">
+        <v>239.3699951171875</v>
+      </c>
+      <c r="D3383" t="n">
+        <v>233.2899932861328</v>
+      </c>
+      <c r="E3383" t="n">
+        <v>235.5800018310547</v>
+      </c>
+      <c r="F3383" t="n">
+        <v>235.5800018310547</v>
+      </c>
+      <c r="G3383" t="n">
+        <v>104099800</v>
+      </c>
+    </row>
+    <row r="3384">
+      <c r="A3384" s="2" t="n">
+        <v>45265</v>
+      </c>
+      <c r="B3384" t="n">
+        <v>233.8699951171875</v>
+      </c>
+      <c r="C3384" t="n">
+        <v>246.6600036621094</v>
+      </c>
+      <c r="D3384" t="n">
+        <v>233.6999969482422</v>
+      </c>
+      <c r="E3384" t="n">
+        <v>238.7200012207031</v>
+      </c>
+      <c r="F3384" t="n">
+        <v>238.7200012207031</v>
+      </c>
+      <c r="G3384" t="n">
+        <v>137971100</v>
+      </c>
+    </row>
+    <row r="3385">
+      <c r="A3385" s="2" t="n">
+        <v>45266</v>
+      </c>
+      <c r="B3385" t="n">
+        <v>242.9199981689453</v>
+      </c>
+      <c r="C3385" t="n">
+        <v>246.5700073242188</v>
+      </c>
+      <c r="D3385" t="n">
+        <v>239.1699981689453</v>
+      </c>
+      <c r="E3385" t="n">
+        <v>239.3699951171875</v>
+      </c>
+      <c r="F3385" t="n">
+        <v>239.3699951171875</v>
+      </c>
+      <c r="G3385" t="n">
+        <v>126436200</v>
+      </c>
+    </row>
+    <row r="3386">
+      <c r="A3386" s="2" t="n">
+        <v>45267</v>
+      </c>
+      <c r="B3386" t="n">
+        <v>241.5500030517578</v>
+      </c>
+      <c r="C3386" t="n">
+        <v>244.0800018310547</v>
+      </c>
+      <c r="D3386" t="n">
+        <v>236.9799957275391</v>
+      </c>
+      <c r="E3386" t="n">
+        <v>242.6399993896484</v>
+      </c>
+      <c r="F3386" t="n">
+        <v>242.6399993896484</v>
+      </c>
+      <c r="G3386" t="n">
+        <v>107142300</v>
+      </c>
+    </row>
+    <row r="3387">
+      <c r="A3387" s="2" t="n">
+        <v>45268</v>
+      </c>
+      <c r="B3387" t="n">
+        <v>240.2700042724609</v>
+      </c>
+      <c r="C3387" t="n">
+        <v>245.2700042724609</v>
+      </c>
+      <c r="D3387" t="n">
+        <v>239.2700042724609</v>
+      </c>
+      <c r="E3387" t="n">
+        <v>243.8399963378906</v>
+      </c>
+      <c r="F3387" t="n">
+        <v>243.8399963378906</v>
+      </c>
+      <c r="G3387" t="n">
+        <v>102980100</v>
+      </c>
+    </row>
+    <row r="3388">
+      <c r="A3388" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="B3388" t="n">
+        <v>242.7400054931641</v>
+      </c>
+      <c r="C3388" t="n">
+        <v>243.4400024414062</v>
+      </c>
+      <c r="D3388" t="n">
+        <v>237.4499969482422</v>
+      </c>
+      <c r="E3388" t="n">
+        <v>239.7400054931641</v>
+      </c>
+      <c r="F3388" t="n">
+        <v>239.7400054931641</v>
+      </c>
+      <c r="G3388" t="n">
+        <v>97913900</v>
+      </c>
+    </row>
+    <row r="3389">
+      <c r="A3389" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="B3389" t="n">
+        <v>238.5500030517578</v>
+      </c>
+      <c r="C3389" t="n">
+        <v>238.9900054931641</v>
+      </c>
+      <c r="D3389" t="n">
+        <v>233.8699951171875</v>
+      </c>
+      <c r="E3389" t="n">
+        <v>237.0099945068359</v>
+      </c>
+      <c r="F3389" t="n">
+        <v>237.0099945068359</v>
+      </c>
+      <c r="G3389" t="n">
+        <v>95328300</v>
+      </c>
+    </row>
+    <row r="3390">
+      <c r="A3390" s="2" t="n">
+        <v>45273</v>
+      </c>
+      <c r="B3390" t="n">
+        <v>234.1900024414062</v>
+      </c>
+      <c r="C3390" t="n">
+        <v>240.3000030517578</v>
+      </c>
+      <c r="D3390" t="n">
+        <v>228.1999969482422</v>
+      </c>
+      <c r="E3390" t="n">
+        <v>239.2899932861328</v>
+      </c>
+      <c r="F3390" t="n">
+        <v>239.2899932861328</v>
+      </c>
+      <c r="G3390" t="n">
+        <v>146286300</v>
+      </c>
+    </row>
+    <row r="3391">
+      <c r="A3391" s="2" t="n">
+        <v>45274</v>
+      </c>
+      <c r="B3391" t="n">
+        <v>241.2200012207031</v>
+      </c>
+      <c r="C3391" t="n">
+        <v>253.8800048828125</v>
+      </c>
+      <c r="D3391" t="n">
+        <v>240.7899932861328</v>
+      </c>
+      <c r="E3391" t="n">
+        <v>251.0500030517578</v>
+      </c>
+      <c r="F3391" t="n">
+        <v>251.0500030517578</v>
+      </c>
+      <c r="G3391" t="n">
+        <v>160829200</v>
+      </c>
+    </row>
+    <row r="3392">
+      <c r="A3392" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B3392" t="n">
+        <v>251.2100067138672</v>
+      </c>
+      <c r="C3392" t="n">
+        <v>254.1300048828125</v>
+      </c>
+      <c r="D3392" t="n">
+        <v>248.3000030517578</v>
+      </c>
+      <c r="E3392" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="F3392" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="G3392" t="n">
+        <v>135720800</v>
+      </c>
+    </row>
+    <row r="3393">
+      <c r="A3393" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="B3393" t="n">
+        <v>253.7799987792969</v>
+      </c>
+      <c r="C3393" t="n">
+        <v>258.739990234375</v>
+      </c>
+      <c r="D3393" t="n">
+        <v>251.3600006103516</v>
+      </c>
+      <c r="E3393" t="n">
+        <v>252.0800018310547</v>
+      </c>
+      <c r="F3393" t="n">
+        <v>252.0800018310547</v>
+      </c>
+      <c r="G3393" t="n">
+        <v>116416500</v>
+      </c>
+    </row>
+    <row r="3394">
+      <c r="A3394" s="2" t="n">
+        <v>45279</v>
+      </c>
+      <c r="B3394" t="n">
+        <v>253.4799957275391</v>
+      </c>
+      <c r="C3394" t="n">
+        <v>258.3399963378906</v>
+      </c>
+      <c r="D3394" t="n">
+        <v>253.0099945068359</v>
+      </c>
+      <c r="E3394" t="n">
+        <v>257.2200012207031</v>
+      </c>
+      <c r="F3394" t="n">
+        <v>257.2200012207031</v>
+      </c>
+      <c r="G3394" t="n">
+        <v>106737400</v>
+      </c>
+    </row>
+    <row r="3395">
+      <c r="A3395" s="2" t="n">
+        <v>45280</v>
+      </c>
+      <c r="B3395" t="n">
+        <v>256.4100036621094</v>
+      </c>
+      <c r="C3395" t="n">
+        <v>259.8399963378906</v>
+      </c>
+      <c r="D3395" t="n">
+        <v>247</v>
+      </c>
+      <c r="E3395" t="n">
+        <v>247.1399993896484</v>
+      </c>
+      <c r="F3395" t="n">
+        <v>247.1399993896484</v>
+      </c>
+      <c r="G3395" t="n">
+        <v>125097000</v>
+      </c>
+    </row>
+    <row r="3396">
+      <c r="A3396" s="2" t="n">
+        <v>45281</v>
+      </c>
+      <c r="B3396" t="n">
+        <v>251.8999938964844</v>
+      </c>
+      <c r="C3396" t="n">
+        <v>254.8000030517578</v>
+      </c>
+      <c r="D3396" t="n">
+        <v>248.5500030517578</v>
+      </c>
+      <c r="E3396" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="F3396" t="n">
+        <v>254.5</v>
+      </c>
+      <c r="G3396" t="n">
+        <v>109594200</v>
+      </c>
+    </row>
+    <row r="3397">
+      <c r="A3397" s="2" t="n">
+        <v>45282</v>
+      </c>
+      <c r="B3397" t="n">
+        <v>256.760009765625</v>
+      </c>
+      <c r="C3397" t="n">
+        <v>258.2200012207031</v>
+      </c>
+      <c r="D3397" t="n">
+        <v>251.3699951171875</v>
+      </c>
+      <c r="E3397" t="n">
+        <v>252.5399932861328</v>
+      </c>
+      <c r="F3397" t="n">
+        <v>252.5399932861328</v>
+      </c>
+      <c r="G3397" t="n">
+        <v>93249800</v>
+      </c>
+    </row>
+    <row r="3398">
+      <c r="A3398" s="2" t="n">
+        <v>45286</v>
+      </c>
+      <c r="B3398" t="n">
+        <v>254.4900054931641</v>
+      </c>
+      <c r="C3398" t="n">
+        <v>257.9700012207031</v>
+      </c>
+      <c r="D3398" t="n">
+        <v>252.9100036621094</v>
+      </c>
+      <c r="E3398" t="n">
+        <v>256.6099853515625</v>
+      </c>
+      <c r="F3398" t="n">
+        <v>256.6099853515625</v>
+      </c>
+      <c r="G3398" t="n">
+        <v>86892400</v>
+      </c>
+    </row>
+    <row r="3399">
+      <c r="A3399" s="2" t="n">
+        <v>45287</v>
+      </c>
+      <c r="B3399" t="n">
+        <v>258.3500061035156</v>
+      </c>
+      <c r="C3399" t="n">
+        <v>263.3399963378906</v>
+      </c>
+      <c r="D3399" t="n">
+        <v>257.5199890136719</v>
+      </c>
+      <c r="E3399" t="n">
+        <v>261.4400024414062</v>
+      </c>
+      <c r="F3399" t="n">
+        <v>261.4400024414062</v>
+      </c>
+      <c r="G3399" t="n">
+        <v>106494400</v>
+      </c>
+    </row>
+    <row r="3400">
+      <c r="A3400" s="2" t="n">
+        <v>45288</v>
+      </c>
+      <c r="B3400" t="n">
+        <v>263.6600036621094</v>
+      </c>
+      <c r="C3400" t="n">
+        <v>265.1300048828125</v>
+      </c>
+      <c r="D3400" t="n">
+        <v>252.7100067138672</v>
+      </c>
+      <c r="E3400" t="n">
+        <v>253.1799926757812</v>
+      </c>
+      <c r="F3400" t="n">
+        <v>253.1799926757812</v>
+      </c>
+      <c r="G3400" t="n">
+        <v>113619900</v>
+      </c>
+    </row>
+    <row r="3401">
+      <c r="A3401" s="2" t="n">
+        <v>45289</v>
+      </c>
+      <c r="B3401" t="n">
+        <v>255.1000061035156</v>
+      </c>
+      <c r="C3401" t="n">
+        <v>255.1900024414062</v>
+      </c>
+      <c r="D3401" t="n">
+        <v>247.4299926757812</v>
+      </c>
+      <c r="E3401" t="n">
+        <v>248.4799957275391</v>
+      </c>
+      <c r="F3401" t="n">
+        <v>248.4799957275391</v>
+      </c>
+      <c r="G3401" t="n">
+        <v>100615300</v>
+      </c>
+    </row>
+    <row r="3402">
+      <c r="A3402" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B3402" t="n">
+        <v>250.0800018310547</v>
+      </c>
+      <c r="C3402" t="n">
+        <v>251.25</v>
+      </c>
+      <c r="D3402" t="n">
+        <v>244.4100036621094</v>
+      </c>
+      <c r="E3402" t="n">
+        <v>248.4199981689453</v>
+      </c>
+      <c r="F3402" t="n">
+        <v>248.4199981689453</v>
+      </c>
+      <c r="G3402" t="n">
+        <v>104654200</v>
+      </c>
+    </row>
+    <row r="3403">
+      <c r="A3403" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B3403" t="n">
+        <v>244.9799957275391</v>
+      </c>
+      <c r="C3403" t="n">
+        <v>245.6799926757812</v>
+      </c>
+      <c r="D3403" t="n">
+        <v>236.3200073242188</v>
+      </c>
+      <c r="E3403" t="n">
+        <v>238.4499969482422</v>
+      </c>
+      <c r="F3403" t="n">
+        <v>238.4499969482422</v>
+      </c>
+      <c r="G3403" t="n">
+        <v>121082600</v>
+      </c>
+    </row>
+    <row r="3404">
+      <c r="A3404" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B3404" t="n">
+        <v>239.25</v>
+      </c>
+      <c r="C3404" t="n">
+        <v>242.6999969482422</v>
+      </c>
+      <c r="D3404" t="n">
+        <v>237.7299957275391</v>
+      </c>
+      <c r="E3404" t="n">
+        <v>237.9299926757812</v>
+      </c>
+      <c r="F3404" t="n">
+        <v>237.9299926757812</v>
+      </c>
+      <c r="G3404" t="n">
+        <v>102629300</v>
+      </c>
+    </row>
+    <row r="3405">
+      <c r="A3405" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B3405" t="n">
+        <v>236.8600006103516</v>
+      </c>
+      <c r="C3405" t="n">
+        <v>240.1199951171875</v>
+      </c>
+      <c r="D3405" t="n">
+        <v>234.8999938964844</v>
+      </c>
+      <c r="E3405" t="n">
+        <v>237.4900054931641</v>
+      </c>
+      <c r="F3405" t="n">
+        <v>237.4900054931641</v>
+      </c>
+      <c r="G3405" t="n">
+        <v>92379400</v>
+      </c>
+    </row>
+    <row r="3406">
+      <c r="A3406" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3406" t="n">
+        <v>236.1399993896484</v>
+      </c>
+      <c r="C3406" t="n">
+        <v>241.25</v>
+      </c>
+      <c r="D3406" t="n">
+        <v>235.3000030517578</v>
+      </c>
+      <c r="E3406" t="n">
+        <v>240.4499969482422</v>
+      </c>
+      <c r="F3406" t="n">
+        <v>240.4499969482422</v>
+      </c>
+      <c r="G3406" t="n">
+        <v>85166600</v>
+      </c>
+    </row>
+    <row r="3407">
+      <c r="A3407" s="2" t="n">
+        <v>45300</v>
+      </c>
+      <c r="B3407" t="n">
+        <v>238.1100006103516</v>
+      </c>
+      <c r="C3407" t="n">
+        <v>238.9600067138672</v>
+      </c>
+      <c r="D3407" t="n">
+        <v>232.0399932861328</v>
+      </c>
+      <c r="E3407" t="n">
+        <v>234.9600067138672</v>
+      </c>
+      <c r="F3407" t="n">
+        <v>234.9600067138672</v>
+      </c>
+      <c r="G3407" t="n">
+        <v>96705700</v>
+      </c>
+    </row>
+    <row r="3408">
+      <c r="A3408" s="2" t="n">
+        <v>45301</v>
+      </c>
+      <c r="B3408" t="n">
+        <v>235.1000061035156</v>
+      </c>
+      <c r="C3408" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="D3408" t="n">
+        <v>231.2899932861328</v>
+      </c>
+      <c r="E3408" t="n">
+        <v>233.9400024414062</v>
+      </c>
+      <c r="F3408" t="n">
+        <v>233.9400024414062</v>
+      </c>
+      <c r="G3408" t="n">
+        <v>91628500</v>
+      </c>
+    </row>
+    <row r="3409">
+      <c r="A3409" s="2" t="n">
+        <v>45302</v>
+      </c>
+      <c r="B3409" t="n">
+        <v>230.5700073242188</v>
+      </c>
+      <c r="C3409" t="n">
+        <v>230.9299926757812</v>
+      </c>
+      <c r="D3409" t="n">
+        <v>225.3699951171875</v>
+      </c>
+      <c r="E3409" t="n">
+        <v>227.2200012207031</v>
+      </c>
+      <c r="F3409" t="n">
+        <v>227.2200012207031</v>
+      </c>
+      <c r="G3409" t="n">
+        <v>105873600</v>
+      </c>
+    </row>
+    <row r="3410">
+      <c r="A3410" s="2" t="n">
+        <v>45303</v>
+      </c>
+      <c r="B3410" t="n">
+        <v>220.0800018310547</v>
+      </c>
+      <c r="C3410" t="n">
+        <v>225.3399963378906</v>
+      </c>
+      <c r="D3410" t="n">
+        <v>217.1499938964844</v>
+      </c>
+      <c r="E3410" t="n">
+        <v>218.8899993896484</v>
+      </c>
+      <c r="F3410" t="n">
+        <v>218.8899993896484</v>
+      </c>
+      <c r="G3410" t="n">
+        <v>122889000</v>
+      </c>
+    </row>
+    <row r="3411">
+      <c r="A3411" s="2" t="n">
+        <v>45307</v>
+      </c>
+      <c r="B3411" t="n">
+        <v>215.1000061035156</v>
+      </c>
+      <c r="C3411" t="n">
+        <v>223.4900054931641</v>
+      </c>
+      <c r="D3411" t="n">
+        <v>212.1799926757812</v>
+      </c>
+      <c r="E3411" t="n">
+        <v>219.9100036621094</v>
+      </c>
+      <c r="F3411" t="n">
+        <v>219.9100036621094</v>
+      </c>
+      <c r="G3411" t="n">
+        <v>115355000</v>
+      </c>
+    </row>
+    <row r="3412">
+      <c r="A3412" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="B3412" t="n">
+        <v>214.8600006103516</v>
+      </c>
+      <c r="C3412" t="n">
+        <v>215.6699981689453</v>
+      </c>
+      <c r="D3412" t="n">
+        <v>212.0099945068359</v>
+      </c>
+      <c r="E3412" t="n">
+        <v>215.5500030517578</v>
+      </c>
+      <c r="F3412" t="n">
+        <v>215.5500030517578</v>
+      </c>
+      <c r="G3412" t="n">
+        <v>103164400</v>
+      </c>
+    </row>
+    <row r="3413">
+      <c r="A3413" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="B3413" t="n">
+        <v>216.8800048828125</v>
+      </c>
+      <c r="C3413" t="n">
+        <v>217.4499969482422</v>
+      </c>
+      <c r="D3413" t="n">
+        <v>208.7400054931641</v>
+      </c>
+      <c r="E3413" t="n">
+        <v>211.8800048828125</v>
+      </c>
+      <c r="F3413" t="n">
+        <v>211.8800048828125</v>
+      </c>
+      <c r="G3413" t="n">
+        <v>108595400</v>
+      </c>
+    </row>
+    <row r="3414">
+      <c r="A3414" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="B3414" t="n">
+        <v>209.9900054931641</v>
+      </c>
+      <c r="C3414" t="n">
+        <v>213.1900024414062</v>
+      </c>
+      <c r="D3414" t="n">
+        <v>207.5599975585938</v>
+      </c>
+      <c r="E3414" t="n">
+        <v>212.1900024414062</v>
+      </c>
+      <c r="F3414" t="n">
+        <v>212.1900024414062</v>
+      </c>
+      <c r="G3414" t="n">
+        <v>102095800</v>
+      </c>
+    </row>
+    <row r="3415">
+      <c r="A3415" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B3415" t="n">
+        <v>212.2599945068359</v>
+      </c>
+      <c r="C3415" t="n">
+        <v>217.8000030517578</v>
+      </c>
+      <c r="D3415" t="n">
+        <v>206.2700042724609</v>
+      </c>
+      <c r="E3415" t="n">
+        <v>208.8000030517578</v>
+      </c>
+      <c r="F3415" t="n">
+        <v>208.8000030517578</v>
+      </c>
+      <c r="G3415" t="n">
+        <v>117952500</v>
+      </c>
+    </row>
+    <row r="3416">
+      <c r="A3416" s="2" t="n">
+        <v>45314</v>
+      </c>
+      <c r="B3416" t="n">
+        <v>211.3000030517578</v>
+      </c>
+      <c r="C3416" t="n">
+        <v>215.6499938964844</v>
+      </c>
+      <c r="D3416" t="n">
+        <v>207.75</v>
+      </c>
+      <c r="E3416" t="n">
+        <v>209.1399993896484</v>
+      </c>
+      <c r="F3416" t="n">
+        <v>209.1399993896484</v>
+      </c>
+      <c r="G3416" t="n">
+        <v>106605900</v>
+      </c>
+    </row>
+    <row r="3417">
+      <c r="A3417" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="B3417" t="n">
+        <v>211.8800048828125</v>
+      </c>
+      <c r="C3417" t="n">
+        <v>212.7299957275391</v>
+      </c>
+      <c r="D3417" t="n">
+        <v>206.7700042724609</v>
+      </c>
+      <c r="E3417" t="n">
+        <v>207.8300018310547</v>
+      </c>
+      <c r="F3417" t="n">
+        <v>207.8300018310547</v>
+      </c>
+      <c r="G3417" t="n">
+        <v>123369900</v>
+      </c>
+    </row>
+    <row r="3418">
+      <c r="A3418" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="B3418" t="n">
+        <v>189.6999969482422</v>
+      </c>
+      <c r="C3418" t="n">
+        <v>193</v>
+      </c>
+      <c r="D3418" t="n">
+        <v>180.0599975585938</v>
+      </c>
+      <c r="E3418" t="n">
+        <v>182.6300048828125</v>
+      </c>
+      <c r="F3418" t="n">
+        <v>182.6300048828125</v>
+      </c>
+      <c r="G3418" t="n">
+        <v>198076800</v>
+      </c>
+    </row>
+    <row r="3419">
+      <c r="A3419" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="B3419" t="n">
+        <v>185.5</v>
+      </c>
+      <c r="C3419" t="n">
+        <v>186.7799987792969</v>
+      </c>
+      <c r="D3419" t="n">
+        <v>182.1000061035156</v>
+      </c>
+      <c r="E3419" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="F3419" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="G3419" t="n">
+        <v>107343200</v>
+      </c>
+    </row>
+    <row r="3420">
+      <c r="A3420" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B3420" t="n">
+        <v>185.6300048828125</v>
+      </c>
+      <c r="C3420" t="n">
+        <v>191.4799957275391</v>
+      </c>
+      <c r="D3420" t="n">
+        <v>183.6699981689453</v>
+      </c>
+      <c r="E3420" t="n">
+        <v>190.9299926757812</v>
+      </c>
+      <c r="F3420" t="n">
+        <v>190.9299926757812</v>
+      </c>
+      <c r="G3420" t="n">
+        <v>125013100</v>
+      </c>
+    </row>
+    <row r="3421">
+      <c r="A3421" s="2" t="n">
+        <v>45321</v>
+      </c>
+      <c r="B3421" t="n">
+        <v>195.3300018310547</v>
+      </c>
+      <c r="C3421" t="n">
+        <v>196.3600006103516</v>
+      </c>
+      <c r="D3421" t="n">
+        <v>190.6100006103516</v>
+      </c>
+      <c r="E3421" t="n">
+        <v>191.5899963378906</v>
+      </c>
+      <c r="F3421" t="n">
+        <v>191.5899963378906</v>
+      </c>
+      <c r="G3421" t="n">
+        <v>109982300</v>
+      </c>
+    </row>
+    <row r="3422">
+      <c r="A3422" s="2" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B3422" t="n">
+        <v>187</v>
+      </c>
+      <c r="C3422" t="n">
+        <v>193.9700012207031</v>
+      </c>
+      <c r="D3422" t="n">
+        <v>185.8500061035156</v>
+      </c>
+      <c r="E3422" t="n">
+        <v>187.2899932861328</v>
+      </c>
+      <c r="F3422" t="n">
+        <v>187.2899932861328</v>
+      </c>
+      <c r="G3422" t="n">
+        <v>103221400</v>
+      </c>
+    </row>
+    <row r="3423">
+      <c r="A3423" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B3423" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="C3423" t="n">
+        <v>189.8800048828125</v>
+      </c>
+      <c r="D3423" t="n">
+        <v>184.2799987792969</v>
+      </c>
+      <c r="E3423" t="n">
+        <v>188.8600006103516</v>
+      </c>
+      <c r="F3423" t="n">
+        <v>188.8600006103516</v>
+      </c>
+      <c r="G3423" t="n">
+        <v>91843300</v>
+      </c>
+    </row>
+    <row r="3424">
+      <c r="A3424" s="2" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B3424" t="n">
+        <v>185.0399932861328</v>
+      </c>
+      <c r="C3424" t="n">
+        <v>188.6900024414062</v>
+      </c>
+      <c r="D3424" t="n">
+        <v>182</v>
+      </c>
+      <c r="E3424" t="n">
+        <v>187.9100036621094</v>
+      </c>
+      <c r="F3424" t="n">
+        <v>187.9100036621094</v>
+      </c>
+      <c r="G3424" t="n">
+        <v>110505100</v>
+      </c>
+    </row>
+    <row r="3425">
+      <c r="A3425" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B3425" t="n">
+        <v>184.2599945068359</v>
+      </c>
+      <c r="C3425" t="n">
+        <v>184.6799926757812</v>
+      </c>
+      <c r="D3425" t="n">
+        <v>175.0099945068359</v>
+      </c>
+      <c r="E3425" t="n">
+        <v>181.0599975585938</v>
+      </c>
+      <c r="F3425" t="n">
+        <v>181.0599975585938</v>
+      </c>
+      <c r="G3425" t="n">
+        <v>134294400</v>
+      </c>
+    </row>
+    <row r="3426">
+      <c r="A3426" s="2" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B3426" t="n">
+        <v>177.2100067138672</v>
+      </c>
+      <c r="C3426" t="n">
+        <v>186.4900054931641</v>
+      </c>
+      <c r="D3426" t="n">
+        <v>177.1100006103516</v>
+      </c>
+      <c r="E3426" t="n">
+        <v>185.1000061035156</v>
+      </c>
+      <c r="F3426" t="n">
+        <v>185.1000061035156</v>
+      </c>
+      <c r="G3426" t="n">
+        <v>122676000</v>
+      </c>
+    </row>
+    <row r="3427">
+      <c r="A3427" s="2" t="n">
+        <v>45329</v>
+      </c>
+      <c r="B3427" t="n">
+        <v>188.1799926757812</v>
+      </c>
+      <c r="C3427" t="n">
+        <v>189.7899932861328</v>
+      </c>
+      <c r="D3427" t="n">
+        <v>182.6799926757812</v>
+      </c>
+      <c r="E3427" t="n">
+        <v>187.5800018310547</v>
+      </c>
+      <c r="F3427" t="n">
+        <v>187.5800018310547</v>
+      </c>
+      <c r="G3427" t="n">
+        <v>111535200</v>
+      </c>
+    </row>
+    <row r="3428">
+      <c r="A3428" s="2" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B3428" t="n">
+        <v>189</v>
+      </c>
+      <c r="C3428" t="n">
+        <v>191.6199951171875</v>
+      </c>
+      <c r="D3428" t="n">
+        <v>185.5800018310547</v>
+      </c>
+      <c r="E3428" t="n">
+        <v>189.5599975585938</v>
+      </c>
+      <c r="F3428" t="n">
+        <v>189.5599975585938</v>
+      </c>
+      <c r="G3428" t="n">
+        <v>83034000</v>
+      </c>
+    </row>
+    <row r="3429">
+      <c r="A3429" s="2" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B3429" t="n">
+        <v>190.1799926757812</v>
+      </c>
+      <c r="C3429" t="n">
+        <v>194.1199951171875</v>
+      </c>
+      <c r="D3429" t="n">
+        <v>189.4799957275391</v>
+      </c>
+      <c r="E3429" t="n">
+        <v>193.5700073242188</v>
+      </c>
+      <c r="F3429" t="n">
+        <v>193.5700073242188</v>
+      </c>
+      <c r="G3429" t="n">
+        <v>84476300</v>
+      </c>
+    </row>
+    <row r="3430">
+      <c r="A3430" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B3430" t="n">
+        <v>192.1100006103516</v>
+      </c>
+      <c r="C3430" t="n">
+        <v>194.7299957275391</v>
+      </c>
+      <c r="D3430" t="n">
+        <v>187.2799987792969</v>
+      </c>
+      <c r="E3430" t="n">
+        <v>188.1300048828125</v>
+      </c>
+      <c r="F3430" t="n">
+        <v>188.1300048828125</v>
+      </c>
+      <c r="G3430" t="n">
+        <v>95498600</v>
+      </c>
+    </row>
+    <row r="3431">
+      <c r="A3431" s="2" t="n">
+        <v>45335</v>
+      </c>
+      <c r="B3431" t="n">
+        <v>183.9900054931641</v>
+      </c>
+      <c r="C3431" t="n">
+        <v>187.2599945068359</v>
+      </c>
+      <c r="D3431" t="n">
+        <v>182.1100006103516</v>
+      </c>
+      <c r="E3431" t="n">
+        <v>184.0200042724609</v>
+      </c>
+      <c r="F3431" t="n">
+        <v>184.0200042724609</v>
+      </c>
+      <c r="G3431" t="n">
+        <v>86759500</v>
+      </c>
+    </row>
+    <row r="3432">
+      <c r="A3432" s="2" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B3432" t="n">
+        <v>185.3000030517578</v>
+      </c>
+      <c r="C3432" t="n">
+        <v>188.8899993896484</v>
+      </c>
+      <c r="D3432" t="n">
+        <v>183.3500061035156</v>
+      </c>
+      <c r="E3432" t="n">
+        <v>188.7100067138672</v>
+      </c>
+      <c r="F3432" t="n">
+        <v>188.7100067138672</v>
+      </c>
+      <c r="G3432" t="n">
+        <v>81203000</v>
+      </c>
+    </row>
+    <row r="3433">
+      <c r="A3433" s="2" t="n">
+        <v>45337</v>
+      </c>
+      <c r="B3433" t="n">
+        <v>189.1600036621094</v>
+      </c>
+      <c r="C3433" t="n">
+        <v>200.8800048828125</v>
+      </c>
+      <c r="D3433" t="n">
+        <v>188.8600006103516</v>
+      </c>
+      <c r="E3433" t="n">
+        <v>200.4499969482422</v>
+      </c>
+      <c r="F3433" t="n">
+        <v>200.4499969482422</v>
+      </c>
+      <c r="G3433" t="n">
+        <v>120831800</v>
+      </c>
+    </row>
+    <row r="3434">
+      <c r="A3434" s="2" t="n">
+        <v>45338</v>
+      </c>
+      <c r="B3434" t="n">
+        <v>202.0599975585938</v>
+      </c>
+      <c r="C3434" t="n">
+        <v>203.1699981689453</v>
+      </c>
+      <c r="D3434" t="n">
+        <v>197.3999938964844</v>
+      </c>
+      <c r="E3434" t="n">
+        <v>199.9499969482422</v>
+      </c>
+      <c r="F3434" t="n">
+        <v>199.9499969482422</v>
+      </c>
+      <c r="G3434" t="n">
+        <v>111173600</v>
+      </c>
+    </row>
+    <row r="3435">
+      <c r="A3435" s="2" t="n">
+        <v>45342</v>
+      </c>
+      <c r="B3435" t="n">
+        <v>196.1300048828125</v>
+      </c>
+      <c r="C3435" t="n">
+        <v>198.6000061035156</v>
+      </c>
+      <c r="D3435" t="n">
+        <v>189.1300048828125</v>
+      </c>
+      <c r="E3435" t="n">
+        <v>193.7599945068359</v>
+      </c>
+      <c r="F3435" t="n">
+        <v>193.7599945068359</v>
+      </c>
+      <c r="G3435" t="n">
+        <v>104545800</v>
+      </c>
+    </row>
+    <row r="3436">
+      <c r="A3436" s="2" t="n">
+        <v>45343</v>
+      </c>
+      <c r="B3436" t="n">
+        <v>193.3600006103516</v>
+      </c>
+      <c r="C3436" t="n">
+        <v>199.4400024414062</v>
+      </c>
+      <c r="D3436" t="n">
+        <v>191.9499969482422</v>
+      </c>
+      <c r="E3436" t="n">
+        <v>194.7700042724609</v>
+      </c>
+      <c r="F3436" t="n">
+        <v>194.7700042724609</v>
+      </c>
+      <c r="G3436" t="n">
+        <v>103844000</v>
+      </c>
+    </row>
+    <row r="3437">
+      <c r="A3437" s="2" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B3437" t="n">
+        <v>194</v>
+      </c>
+      <c r="C3437" t="n">
+        <v>198.3200073242188</v>
+      </c>
+      <c r="D3437" t="n">
+        <v>191.3600006103516</v>
+      </c>
+      <c r="E3437" t="n">
+        <v>197.4100036621094</v>
+      </c>
+      <c r="F3437" t="n">
+        <v>197.4100036621094</v>
+      </c>
+      <c r="G3437" t="n">
+        <v>92739500</v>
+      </c>
+    </row>
+    <row r="3438">
+      <c r="A3438" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B3438" t="n">
+        <v>195.3099975585938</v>
+      </c>
+      <c r="C3438" t="n">
+        <v>197.5700073242188</v>
+      </c>
+      <c r="D3438" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="E3438" t="n">
+        <v>191.9700012207031</v>
+      </c>
+      <c r="F3438" t="n">
+        <v>191.9700012207031</v>
+      </c>
+      <c r="G3438" t="n">
+        <v>78841900</v>
+      </c>
+    </row>
+    <row r="3439">
+      <c r="A3439" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B3439" t="n">
+        <v>192.2899932861328</v>
+      </c>
+      <c r="C3439" t="n">
+        <v>201.7799987792969</v>
+      </c>
+      <c r="D3439" t="n">
+        <v>192</v>
+      </c>
+      <c r="E3439" t="n">
+        <v>199.3999938964844</v>
+      </c>
+      <c r="F3439" t="n">
+        <v>199.3999938964844</v>
+      </c>
+      <c r="G3439" t="n">
+        <v>111747100</v>
+      </c>
+    </row>
+    <row r="3440">
+      <c r="A3440" s="2" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B3440" t="n">
+        <v>204.0399932861328</v>
+      </c>
+      <c r="C3440" t="n">
+        <v>205.6000061035156</v>
+      </c>
+      <c r="D3440" t="n">
+        <v>198.2599945068359</v>
+      </c>
+      <c r="E3440" t="n">
+        <v>199.7299957275391</v>
+      </c>
+      <c r="F3440" t="n">
+        <v>199.7299957275391</v>
+      </c>
+      <c r="G3440" t="n">
+        <v>108645400</v>
+      </c>
+    </row>
+    <row r="3441">
+      <c r="A3441" s="2" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B3441" t="n">
+        <v>200.4199981689453</v>
+      </c>
+      <c r="C3441" t="n">
+        <v>205.3000030517578</v>
+      </c>
+      <c r="D3441" t="n">
+        <v>198.4400024414062</v>
+      </c>
+      <c r="E3441" t="n">
+        <v>202.0399932861328</v>
+      </c>
+      <c r="F3441" t="n">
+        <v>202.0399932861328</v>
+      </c>
+      <c r="G3441" t="n">
+        <v>99806200</v>
+      </c>
+    </row>
+    <row r="3442">
+      <c r="A3442" s="2" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B3442" t="n">
+        <v>204.1799926757812</v>
+      </c>
+      <c r="C3442" t="n">
+        <v>205.2799987792969</v>
+      </c>
+      <c r="D3442" t="n">
+        <v>198.4499969482422</v>
+      </c>
+      <c r="E3442" t="n">
+        <v>201.8800048828125</v>
+      </c>
+      <c r="F3442" t="n">
+        <v>201.8800048828125</v>
+      </c>
+      <c r="G3442" t="n">
+        <v>85907000</v>
+      </c>
+    </row>
+    <row r="3443">
+      <c r="A3443" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B3443" t="n">
+        <v>200.5200042724609</v>
+      </c>
+      <c r="C3443" t="n">
+        <v>204.5200042724609</v>
+      </c>
+      <c r="D3443" t="n">
+        <v>198.5</v>
+      </c>
+      <c r="E3443" t="n">
+        <v>202.6399993896484</v>
+      </c>
+      <c r="F3443" t="n">
+        <v>202.6399993896484</v>
+      </c>
+      <c r="G3443" t="n">
+        <v>82099200</v>
+      </c>
+    </row>
+    <row r="3444">
+      <c r="A3444" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B3444" t="n">
+        <v>198.7299957275391</v>
+      </c>
+      <c r="C3444" t="n">
+        <v>199.75</v>
+      </c>
+      <c r="D3444" t="n">
+        <v>186.7200012207031</v>
+      </c>
+      <c r="E3444" t="n">
+        <v>188.1399993896484</v>
+      </c>
+      <c r="F3444" t="n">
+        <v>188.1399993896484</v>
+      </c>
+      <c r="G3444" t="n">
+        <v>134334900</v>
+      </c>
+    </row>
+    <row r="3445">
+      <c r="A3445" s="2" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B3445" t="n">
+        <v>183.0500030517578</v>
+      </c>
+      <c r="C3445" t="n">
+        <v>184.5899963378906</v>
+      </c>
+      <c r="D3445" t="n">
+        <v>177.5700073242188</v>
+      </c>
+      <c r="E3445" t="n">
+        <v>180.7400054931641</v>
+      </c>
+      <c r="F3445" t="n">
+        <v>180.7400054931641</v>
+      </c>
+      <c r="G3445" t="n">
+        <v>119660800</v>
+      </c>
+    </row>
+    <row r="3446">
+      <c r="A3446" s="2" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B3446" t="n">
+        <v>179.9900054931641</v>
+      </c>
+      <c r="C3446" t="n">
+        <v>181.5800018310547</v>
+      </c>
+      <c r="D3446" t="n">
+        <v>173.6999969482422</v>
+      </c>
+      <c r="E3446" t="n">
+        <v>176.5399932861328</v>
+      </c>
+      <c r="F3446" t="n">
+        <v>176.5399932861328</v>
+      </c>
+      <c r="G3446" t="n">
+        <v>107920900</v>
+      </c>
+    </row>
+    <row r="3447">
+      <c r="A3447" s="2" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B3447" t="n">
+        <v>174.3500061035156</v>
+      </c>
+      <c r="C3447" t="n">
+        <v>180.0399932861328</v>
+      </c>
+      <c r="D3447" t="n">
+        <v>173.6999969482422</v>
+      </c>
+      <c r="E3447" t="n">
+        <v>178.6499938964844</v>
+      </c>
+      <c r="F3447" t="n">
+        <v>178.6499938964844</v>
+      </c>
+      <c r="G3447" t="n">
+        <v>102129000</v>
+      </c>
+    </row>
+    <row r="3448">
+      <c r="A3448" s="2" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B3448" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="C3448" t="n">
+        <v>182.7299957275391</v>
+      </c>
+      <c r="D3448" t="n">
+        <v>174.6999969482422</v>
+      </c>
+      <c r="E3448" t="n">
+        <v>175.3399963378906</v>
+      </c>
+      <c r="F3448" t="n">
+        <v>175.3399963378906</v>
+      </c>
+      <c r="G3448" t="n">
+        <v>85315300</v>
+      </c>
+    </row>
+    <row r="3449">
+      <c r="A3449" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B3449" t="n">
+        <v>175.4499969482422</v>
+      </c>
+      <c r="C3449" t="n">
+        <v>182.8699951171875</v>
+      </c>
+      <c r="D3449" t="n">
+        <v>174.8000030517578</v>
+      </c>
+      <c r="E3449" t="n">
+        <v>177.7700042724609</v>
+      </c>
+      <c r="F3449" t="n">
+        <v>177.7700042724609</v>
+      </c>
+      <c r="G3449" t="n">
+        <v>85391500</v>
+      </c>
+    </row>
+    <row r="3450">
+      <c r="A3450" s="2" t="n">
+        <v>45363</v>
+      </c>
+      <c r="B3450" t="n">
+        <v>177.7700042724609</v>
+      </c>
+      <c r="C3450" t="n">
+        <v>179.4299926757812</v>
+      </c>
+      <c r="D3450" t="n">
+        <v>172.4100036621094</v>
+      </c>
+      <c r="E3450" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="F3450" t="n">
+        <v>177.5399932861328</v>
+      </c>
+      <c r="G3450" t="n">
+        <v>87391700</v>
+      </c>
+    </row>
+    <row r="3451">
+      <c r="A3451" s="2" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B3451" t="n">
+        <v>173.0500030517578</v>
+      </c>
+      <c r="C3451" t="n">
+        <v>176.0500030517578</v>
+      </c>
+      <c r="D3451" t="n">
+        <v>169.1499938964844</v>
+      </c>
+      <c r="E3451" t="n">
+        <v>169.4799957275391</v>
+      </c>
+      <c r="F3451" t="n">
+        <v>169.4799957275391</v>
+      </c>
+      <c r="G3451" t="n">
+        <v>106524500</v>
+      </c>
+    </row>
+    <row r="3452">
+      <c r="A3452" s="2" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B3452" t="n">
+        <v>167.7700042724609</v>
+      </c>
+      <c r="C3452" t="n">
+        <v>171.1699981689453</v>
+      </c>
+      <c r="D3452" t="n">
+        <v>160.5099945068359</v>
+      </c>
+      <c r="E3452" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="F3452" t="n">
+        <v>162.5</v>
+      </c>
+      <c r="G3452" t="n">
+        <v>126325700</v>
+      </c>
+    </row>
+    <row r="3453">
+      <c r="A3453" s="2" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B3453" t="n">
+        <v>163.1600036621094</v>
+      </c>
+      <c r="C3453" t="n">
+        <v>165.1799926757812</v>
+      </c>
+      <c r="D3453" t="n">
+        <v>160.7599945068359</v>
+      </c>
+      <c r="E3453" t="n">
+        <v>163.5700073242188</v>
+      </c>
+      <c r="F3453" t="n">
+        <v>163.5700073242188</v>
+      </c>
+      <c r="G3453" t="n">
+        <v>96971900</v>
+      </c>
+    </row>
+    <row r="3454">
+      <c r="A3454" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B3454" t="n">
+        <v>170.0200042724609</v>
+      </c>
+      <c r="C3454" t="n">
+        <v>174.7200012207031</v>
+      </c>
+      <c r="D3454" t="n">
+        <v>165.8999938964844</v>
+      </c>
+      <c r="E3454" t="n">
+        <v>173.8000030517578</v>
+      </c>
+      <c r="F3454" t="n">
+        <v>173.8000030517578</v>
+      </c>
+      <c r="G3454" t="n">
+        <v>108214400</v>
+      </c>
+    </row>
+    <row r="3455">
+      <c r="A3455" s="2" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B3455" t="n">
+        <v>172.3600006103516</v>
+      </c>
+      <c r="C3455" t="n">
+        <v>172.8200073242188</v>
+      </c>
+      <c r="D3455" t="n">
+        <v>167.4199981689453</v>
+      </c>
+      <c r="E3455" t="n">
+        <v>171.3200073242188</v>
+      </c>
+      <c r="F3455" t="n">
+        <v>171.3200073242188</v>
+      </c>
+      <c r="G3455" t="n">
+        <v>77271400</v>
+      </c>
+    </row>
+    <row r="3456">
+      <c r="A3456" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="B3456" t="n">
+        <v>173</v>
+      </c>
+      <c r="C3456" t="n">
+        <v>176.25</v>
+      </c>
+      <c r="D3456" t="n">
+        <v>170.8200073242188</v>
+      </c>
+      <c r="E3456" t="n">
+        <v>175.6600036621094</v>
+      </c>
+      <c r="F3456" t="n">
+        <v>175.6600036621094</v>
+      </c>
+      <c r="G3456" t="n">
+        <v>83846700</v>
+      </c>
+    </row>
+    <row r="3457">
+      <c r="A3457" s="2" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B3457" t="n">
+        <v>176.3899993896484</v>
+      </c>
+      <c r="C3457" t="n">
+        <v>178.1799926757812</v>
+      </c>
+      <c r="D3457" t="n">
+        <v>171.8000030517578</v>
+      </c>
+      <c r="E3457" t="n">
+        <v>172.8200073242188</v>
+      </c>
+      <c r="F3457" t="n">
+        <v>172.8200073242188</v>
+      </c>
+      <c r="G3457" t="n">
+        <v>73178000</v>
+      </c>
+    </row>
+    <row r="3458">
+      <c r="A3458" s="2" t="n">
+        <v>45373</v>
+      </c>
+      <c r="B3458" t="n">
+        <v>166.6900024414062</v>
+      </c>
+      <c r="C3458" t="n">
+        <v>171.1999969482422</v>
+      </c>
+      <c r="D3458" t="n">
+        <v>166.3000030517578</v>
+      </c>
+      <c r="E3458" t="n">
+        <v>170.8300018310547</v>
+      </c>
+      <c r="F3458" t="n">
+        <v>170.8300018310547</v>
+      </c>
+      <c r="G3458" t="n">
+        <v>75454700</v>
+      </c>
+    </row>
+    <row r="3459">
+      <c r="A3459" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B3459" t="n">
+        <v>168.7599945068359</v>
+      </c>
+      <c r="C3459" t="n">
+        <v>175.2400054931641</v>
+      </c>
+      <c r="D3459" t="n">
+        <v>168.7299957275391</v>
+      </c>
+      <c r="E3459" t="n">
+        <v>172.6300048828125</v>
+      </c>
+      <c r="F3459" t="n">
+        <v>172.6300048828125</v>
+      </c>
+      <c r="G3459" t="n">
+        <v>74228600</v>
+      </c>
+    </row>
+    <row r="3460">
+      <c r="A3460" s="2" t="n">
+        <v>45377</v>
+      </c>
+      <c r="B3460" t="n">
+        <v>178.5800018310547</v>
+      </c>
+      <c r="C3460" t="n">
+        <v>184.25</v>
+      </c>
+      <c r="D3460" t="n">
+        <v>177.3800048828125</v>
+      </c>
+      <c r="E3460" t="n">
+        <v>177.6699981689453</v>
+      </c>
+      <c r="F3460" t="n">
+        <v>177.6699981689453</v>
+      </c>
+      <c r="G3460" t="n">
+        <v>113186200</v>
+      </c>
+    </row>
+    <row r="3461">
+      <c r="A3461" s="2" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B3461" t="n">
+        <v>181.4100036621094</v>
+      </c>
+      <c r="C3461" t="n">
+        <v>181.9100036621094</v>
+      </c>
+      <c r="D3461" t="n">
+        <v>176</v>
+      </c>
+      <c r="E3461" t="n">
+        <v>179.8300018310547</v>
+      </c>
+      <c r="F3461" t="n">
+        <v>179.8300018310547</v>
+      </c>
+      <c r="G3461" t="n">
+        <v>81804000</v>
+      </c>
+    </row>
+    <row r="3462">
+      <c r="A3462" s="2" t="n">
+        <v>45379</v>
+      </c>
+      <c r="B3462" t="n">
+        <v>177.4499969482422</v>
+      </c>
+      <c r="C3462" t="n">
+        <v>179.5700073242188</v>
+      </c>
+      <c r="D3462" t="n">
+        <v>175.3000030517578</v>
+      </c>
+      <c r="E3462" t="n">
+        <v>175.7899932861328</v>
+      </c>
+      <c r="F3462" t="n">
+        <v>175.7899932861328</v>
+      </c>
+      <c r="G3462" t="n">
+        <v>77654800</v>
+      </c>
+    </row>
+    <row r="3463">
+      <c r="A3463" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B3463" t="n">
+        <v>176.1699981689453</v>
+      </c>
+      <c r="C3463" t="n">
+        <v>176.75</v>
+      </c>
+      <c r="D3463" t="n">
+        <v>170.2100067138672</v>
+      </c>
+      <c r="E3463" t="n">
+        <v>175.2200012207031</v>
+      </c>
+      <c r="F3463" t="n">
+        <v>175.2200012207031</v>
+      </c>
+      <c r="G3463" t="n">
+        <v>81562100</v>
+      </c>
+    </row>
+    <row r="3464">
+      <c r="A3464" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B3464" t="n">
+        <v>164.75</v>
+      </c>
+      <c r="C3464" t="n">
+        <v>167.6900024414062</v>
+      </c>
+      <c r="D3464" t="n">
+        <v>163.4299926757812</v>
+      </c>
+      <c r="E3464" t="n">
+        <v>166.6300048828125</v>
+      </c>
+      <c r="F3464" t="n">
+        <v>166.6300048828125</v>
+      </c>
+      <c r="G3464" t="n">
+        <v>116650600</v>
+      </c>
+    </row>
+    <row r="3465">
+      <c r="A3465" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B3465" t="n">
+        <v>164.0200042724609</v>
+      </c>
+      <c r="C3465" t="n">
+        <v>168.8200073242188</v>
+      </c>
+      <c r="D3465" t="n">
+        <v>163.2799987792969</v>
+      </c>
+      <c r="E3465" t="n">
+        <v>168.3800048828125</v>
+      </c>
+      <c r="F3465" t="n">
+        <v>168.3800048828125</v>
+      </c>
+      <c r="G3465" t="n">
+        <v>82950100</v>
+      </c>
+    </row>
+    <row r="3466">
+      <c r="A3466" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B3466" t="n">
+        <v>170.0700073242188</v>
+      </c>
+      <c r="C3466" t="n">
+        <v>177.1900024414062</v>
+      </c>
+      <c r="D3466" t="n">
+        <v>168.0099945068359</v>
+      </c>
+      <c r="E3466" t="n">
+        <v>171.1100006103516</v>
+      </c>
+      <c r="F3466" t="n">
+        <v>171.1100006103516</v>
+      </c>
+      <c r="G3466" t="n">
+        <v>123162000</v>
+      </c>
+    </row>
+    <row r="3467">
+      <c r="A3467" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B3467" t="n">
+        <v>169.0800018310547</v>
+      </c>
+      <c r="C3467" t="n">
+        <v>170.8600006103516</v>
+      </c>
+      <c r="D3467" t="n">
+        <v>160.5099945068359</v>
+      </c>
+      <c r="E3467" t="n">
+        <v>164.8999938964844</v>
+      </c>
+      <c r="F3467" t="n">
+        <v>164.8999938964844</v>
+      </c>
+      <c r="G3467" t="n">
+        <v>141250700</v>
+      </c>
+    </row>
+    <row r="3468">
+      <c r="A3468" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B3468" t="n">
+        <v>169.3399963378906</v>
+      </c>
+      <c r="C3468" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="D3468" t="n">
+        <v>167.7899932861328</v>
+      </c>
+      <c r="E3468" t="n">
+        <v>172.9799957275391</v>
+      </c>
+      <c r="F3468" t="n">
+        <v>172.9799957275391</v>
+      </c>
+      <c r="G3468" t="n">
+        <v>104423300</v>
+      </c>
+    </row>
+    <row r="3469">
+      <c r="A3469" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B3469" t="n">
+        <v>172.9100036621094</v>
+      </c>
+      <c r="C3469" t="n">
+        <v>179.2200012207031</v>
+      </c>
+      <c r="D3469" t="n">
+        <v>171.9199981689453</v>
+      </c>
+      <c r="E3469" t="n">
+        <v>176.8800048828125</v>
+      </c>
+      <c r="F3469" t="n">
+        <v>176.8800048828125</v>
+      </c>
+      <c r="G3469" t="n">
+        <v>103232700</v>
+      </c>
+    </row>
+    <row r="3470">
+      <c r="A3470" s="2" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B3470" t="n">
+        <v>173.0399932861328</v>
+      </c>
+      <c r="C3470" t="n">
+        <v>174.9299926757812</v>
+      </c>
+      <c r="D3470" t="n">
+        <v>170.0099945068359</v>
+      </c>
+      <c r="E3470" t="n">
+        <v>171.7599945068359</v>
+      </c>
+      <c r="F3470" t="n">
+        <v>171.7599945068359</v>
+      </c>
+      <c r="G3470" t="n">
+        <v>84532400</v>
+      </c>
+    </row>
+    <row r="3471">
+      <c r="A3471" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B3471" t="n">
+        <v>172.5500030517578</v>
+      </c>
+      <c r="C3471" t="n">
+        <v>175.8800048828125</v>
+      </c>
+      <c r="D3471" t="n">
+        <v>168.5099945068359</v>
+      </c>
+      <c r="E3471" t="n">
+        <v>174.6000061035156</v>
+      </c>
+      <c r="F3471" t="n">
+        <v>174.6000061035156</v>
+      </c>
+      <c r="G3471" t="n">
+        <v>94516000</v>
+      </c>
+    </row>
+    <row r="3472">
+      <c r="A3472" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B3472" t="n">
+        <v>172.3399963378906</v>
+      </c>
+      <c r="C3472" t="n">
+        <v>173.8099975585938</v>
+      </c>
+      <c r="D3472" t="n">
+        <v>170.3600006103516</v>
+      </c>
+      <c r="E3472" t="n">
+        <v>171.0500030517578</v>
+      </c>
+      <c r="F3472" t="n">
+        <v>171.0500030517578</v>
+      </c>
+      <c r="G3472" t="n">
+        <v>64506600</v>
+      </c>
+    </row>
+    <row r="3473">
+      <c r="A3473" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B3473" t="n">
+        <v>170.2400054931641</v>
+      </c>
+      <c r="C3473" t="n">
+        <v>170.6900024414062</v>
+      </c>
+      <c r="D3473" t="n">
+        <v>161.3800048828125</v>
+      </c>
+      <c r="E3473" t="n">
+        <v>161.4799957275391</v>
+      </c>
+      <c r="F3473" t="n">
+        <v>161.4799957275391</v>
+      </c>
+      <c r="G3473" t="n">
+        <v>100245300</v>
+      </c>
+    </row>
+    <row r="3474">
+      <c r="A3474" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B3474" t="n">
+        <v>156.7400054931641</v>
+      </c>
+      <c r="C3474" t="n">
+        <v>158.1900024414062</v>
+      </c>
+      <c r="D3474" t="n">
+        <v>153.75</v>
+      </c>
+      <c r="E3474" t="n">
+        <v>157.1100006103516</v>
+      </c>
+      <c r="F3474" t="n">
+        <v>157.1100006103516</v>
+      </c>
+      <c r="G3474" t="n">
+        <v>97000000</v>
+      </c>
+    </row>
+    <row r="3475">
+      <c r="A3475" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B3475" t="n">
+        <v>157.6399993896484</v>
+      </c>
+      <c r="C3475" t="n">
+        <v>158.3300018310547</v>
+      </c>
+      <c r="D3475" t="n">
+        <v>153.7799987792969</v>
+      </c>
+      <c r="E3475" t="n">
+        <v>155.4499969482422</v>
+      </c>
+      <c r="F3475" t="n">
+        <v>155.4499969482422</v>
+      </c>
+      <c r="G3475" t="n">
+        <v>82439700</v>
+      </c>
+    </row>
+    <row r="3476">
+      <c r="A3476" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B3476" t="n">
+        <v>151.25</v>
+      </c>
+      <c r="C3476" t="n">
+        <v>152.1999969482422</v>
+      </c>
+      <c r="D3476" t="n">
+        <v>148.6999969482422</v>
+      </c>
+      <c r="E3476" t="n">
+        <v>149.9299926757812</v>
+      </c>
+      <c r="F3476" t="n">
+        <v>149.9299926757812</v>
+      </c>
+      <c r="G3476" t="n">
+        <v>96098800</v>
+      </c>
+    </row>
+    <row r="3477">
+      <c r="A3477" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B3477" t="n">
+        <v>148.9700012207031</v>
+      </c>
+      <c r="C3477" t="n">
+        <v>150.9400024414062</v>
+      </c>
+      <c r="D3477" t="n">
+        <v>146.2200012207031</v>
+      </c>
+      <c r="E3477" t="n">
+        <v>147.0500030517578</v>
+      </c>
+      <c r="F3477" t="n">
+        <v>147.0500030517578</v>
+      </c>
+      <c r="G3477" t="n">
+        <v>86005100</v>
+      </c>
+    </row>
+    <row r="3478">
+      <c r="A3478" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B3478" t="n">
+        <v>140.5599975585938</v>
+      </c>
+      <c r="C3478" t="n">
+        <v>144.4400024414062</v>
+      </c>
+      <c r="D3478" t="n">
+        <v>138.8000030517578</v>
+      </c>
+      <c r="E3478" t="n">
+        <v>142.0500030517578</v>
+      </c>
+      <c r="F3478" t="n">
+        <v>142.0500030517578</v>
+      </c>
+      <c r="G3478" t="n">
+        <v>107097600</v>
+      </c>
+    </row>
+    <row r="3479">
+      <c r="A3479" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B3479" t="n">
+        <v>143.3300018310547</v>
+      </c>
+      <c r="C3479" t="n">
+        <v>147.2599945068359</v>
+      </c>
+      <c r="D3479" t="n">
+        <v>141.1100006103516</v>
+      </c>
+      <c r="E3479" t="n">
+        <v>144.6799926757812</v>
+      </c>
+      <c r="F3479" t="n">
+        <v>144.6799926757812</v>
+      </c>
+      <c r="G3479" t="n">
+        <v>124545100</v>
+      </c>
+    </row>
+    <row r="3480">
+      <c r="A3480" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B3480" t="n">
+        <v>162.8399963378906</v>
+      </c>
+      <c r="C3480" t="n">
+        <v>167.9700012207031</v>
+      </c>
+      <c r="D3480" t="n">
+        <v>157.5099945068359</v>
+      </c>
+      <c r="E3480" t="n">
+        <v>162.1300048828125</v>
+      </c>
+      <c r="F3480" t="n">
+        <v>162.1300048828125</v>
+      </c>
+      <c r="G3480" t="n">
+        <v>181178000</v>
+      </c>
+    </row>
+    <row r="3481">
+      <c r="A3481" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B3481" t="n">
+        <v>158.9600067138672</v>
+      </c>
+      <c r="C3481" t="n">
+        <v>170.8800048828125</v>
+      </c>
+      <c r="D3481" t="n">
+        <v>158.3600006103516</v>
+      </c>
+      <c r="E3481" t="n">
+        <v>170.1799926757812</v>
+      </c>
+      <c r="F3481" t="n">
+        <v>170.1799926757812</v>
+      </c>
+      <c r="G3481" t="n">
+        <v>126427500</v>
+      </c>
+    </row>
+    <row r="3482">
+      <c r="A3482" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B3482" t="n">
+        <v>168.8500061035156</v>
+      </c>
+      <c r="C3482" t="n">
+        <v>172.1199951171875</v>
+      </c>
+      <c r="D3482" t="n">
+        <v>166.3699951171875</v>
+      </c>
+      <c r="E3482" t="n">
+        <v>168.2899932861328</v>
+      </c>
+      <c r="F3482" t="n">
+        <v>168.2899932861328</v>
+      </c>
+      <c r="G3482" t="n">
+        <v>109815700</v>
+      </c>
+    </row>
+    <row r="3483">
+      <c r="A3483" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B3483" t="n">
+        <v>188.4199981689453</v>
+      </c>
+      <c r="C3483" t="n">
+        <v>198.8699951171875</v>
+      </c>
+      <c r="D3483" t="n">
+        <v>184.5399932861328</v>
+      </c>
+      <c r="E3483" t="n">
+        <v>194.0500030517578</v>
+      </c>
+      <c r="F3483" t="n">
+        <v>194.0500030517578</v>
+      </c>
+      <c r="G3483" t="n">
+        <v>243869700</v>
+      </c>
+    </row>
+    <row r="3484">
+      <c r="A3484" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B3484" t="n">
+        <v>186.9799957275391</v>
+      </c>
+      <c r="C3484" t="n">
+        <v>190.9499969482422</v>
+      </c>
+      <c r="D3484" t="n">
+        <v>182.8399963378906</v>
+      </c>
+      <c r="E3484" t="n">
+        <v>183.2799987792969</v>
+      </c>
+      <c r="F3484" t="n">
+        <v>183.2799987792969</v>
+      </c>
+      <c r="G3484" t="n">
+        <v>127031800</v>
+      </c>
+    </row>
+    <row r="3485">
+      <c r="A3485" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B3485" t="n">
+        <v>182</v>
+      </c>
+      <c r="C3485" t="n">
+        <v>185.8600006103516</v>
+      </c>
+      <c r="D3485" t="n">
+        <v>179.0099945068359</v>
+      </c>
+      <c r="E3485" t="n">
+        <v>179.9900054931641</v>
+      </c>
+      <c r="F3485" t="n">
+        <v>179.9900054931641</v>
+      </c>
+      <c r="G3485" t="n">
+        <v>92829700</v>
+      </c>
+    </row>
+    <row r="3486">
+      <c r="A3486" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B3486" t="n">
+        <v>182.8600006103516</v>
+      </c>
+      <c r="C3486" t="n">
+        <v>184.6000061035156</v>
+      </c>
+      <c r="D3486" t="n">
+        <v>176.0200042724609</v>
+      </c>
+      <c r="E3486" t="n">
+        <v>180.0099945068359</v>
+      </c>
+      <c r="F3486" t="n">
+        <v>180.0099945068359</v>
+      </c>
+      <c r="G3486" t="n">
+        <v>89148000</v>
+      </c>
+    </row>
+    <row r="3487">
+      <c r="A3487" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B3487" t="n">
+        <v>182.1000061035156</v>
+      </c>
+      <c r="C3487" t="n">
+        <v>184.7799987792969</v>
+      </c>
+      <c r="D3487" t="n">
+        <v>178.4199981689453</v>
+      </c>
+      <c r="E3487" t="n">
+        <v>181.1900024414062</v>
+      </c>
+      <c r="F3487" t="n">
+        <v>181.1900024414062</v>
+      </c>
+      <c r="G3487" t="n">
+        <v>75491500</v>
+      </c>
+    </row>
+    <row r="3488">
+      <c r="A3488" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B3488" t="n">
+        <v>183.8000030517578</v>
+      </c>
+      <c r="C3488" t="n">
+        <v>187.5599975585938</v>
+      </c>
+      <c r="D3488" t="n">
+        <v>182.1999969482422</v>
+      </c>
+      <c r="E3488" t="n">
+        <v>184.7599945068359</v>
+      </c>
+      <c r="F3488" t="n">
+        <v>184.7599945068359</v>
+      </c>
+      <c r="G3488" t="n">
+        <v>84390300</v>
+      </c>
+    </row>
+    <row r="3489">
+      <c r="A3489" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B3489" t="n">
+        <v>182.3999938964844</v>
+      </c>
+      <c r="C3489" t="n">
+        <v>183.2599945068359</v>
+      </c>
+      <c r="D3489" t="n">
+        <v>177.3999938964844</v>
+      </c>
+      <c r="E3489" t="n">
+        <v>177.8099975585938</v>
+      </c>
+      <c r="F3489" t="n">
+        <v>177.8099975585938</v>
+      </c>
+      <c r="G3489" t="n">
+        <v>75045900</v>
+      </c>
+    </row>
+    <row r="3490">
+      <c r="A3490" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B3490" t="n">
+        <v>171.5899963378906</v>
+      </c>
+      <c r="C3490" t="n">
+        <v>176.0599975585938</v>
+      </c>
+      <c r="D3490" t="n">
+        <v>170.1499938964844</v>
+      </c>
+      <c r="E3490" t="n">
+        <v>174.7200012207031</v>
+      </c>
+      <c r="F3490" t="n">
+        <v>174.7200012207031</v>
+      </c>
+      <c r="G3490" t="n">
+        <v>79969500</v>
+      </c>
+    </row>
+    <row r="3491">
+      <c r="A3491" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B3491" t="n">
+        <v>175.0099945068359</v>
+      </c>
+      <c r="C3491" t="n">
+        <v>175.6199951171875</v>
+      </c>
+      <c r="D3491" t="n">
+        <v>171.3699951171875</v>
+      </c>
+      <c r="E3491" t="n">
+        <v>171.9700012207031</v>
+      </c>
+      <c r="F3491" t="n">
+        <v>171.9700012207031</v>
+      </c>
+      <c r="G3491" t="n">
+        <v>65950300</v>
+      </c>
+    </row>
+    <row r="3492">
+      <c r="A3492" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B3492" t="n">
+        <v>173.0500030517578</v>
+      </c>
+      <c r="C3492" t="n">
+        <v>173.0599975585938</v>
+      </c>
+      <c r="D3492" t="n">
+        <v>167.75</v>
+      </c>
+      <c r="E3492" t="n">
+        <v>168.4700012207031</v>
+      </c>
+      <c r="F3492" t="n">
+        <v>168.4700012207031</v>
+      </c>
+      <c r="G3492" t="n">
+        <v>72627200</v>
+      </c>
+    </row>
+    <row r="3493">
+      <c r="A3493" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B3493" t="n">
+        <v>170</v>
+      </c>
+      <c r="C3493" t="n">
+        <v>175.3999938964844</v>
+      </c>
+      <c r="D3493" t="n">
+        <v>169</v>
+      </c>
+      <c r="E3493" t="n">
+        <v>171.8899993896484</v>
+      </c>
+      <c r="F3493" t="n">
+        <v>171.8899993896484</v>
+      </c>
+      <c r="G3493" t="n">
+        <v>67018900</v>
+      </c>
+    </row>
+    <row r="3494">
+      <c r="A3494" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B3494" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="C3494" t="n">
+        <v>179.4900054931641</v>
+      </c>
+      <c r="D3494" t="n">
+        <v>174.0700073242188</v>
+      </c>
+      <c r="E3494" t="n">
+        <v>177.5500030517578</v>
+      </c>
+      <c r="F3494" t="n">
+        <v>177.5500030517578</v>
+      </c>
+      <c r="G3494" t="n">
+        <v>86407400</v>
+      </c>
+    </row>
+    <row r="3495">
+      <c r="A3495" s="2" t="n">
+        <v>45427</v>
+      </c>
+      <c r="B3495" t="n">
+        <v>179.8999938964844</v>
+      </c>
+      <c r="C3495" t="n">
+        <v>180</v>
+      </c>
+      <c r="D3495" t="n">
+        <v>173.1100006103516</v>
+      </c>
+      <c r="E3495" t="n">
+        <v>173.9900054931641</v>
+      </c>
+      <c r="F3495" t="n">
+        <v>173.9900054931641</v>
+      </c>
+      <c r="G3495" t="n">
+        <v>79663000</v>
+      </c>
+    </row>
+    <row r="3496">
+      <c r="A3496" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B3496" t="n">
+        <v>174.1000061035156</v>
+      </c>
+      <c r="C3496" t="n">
+        <v>175.7899932861328</v>
+      </c>
+      <c r="D3496" t="n">
+        <v>171.4299926757812</v>
+      </c>
+      <c r="E3496" t="n">
+        <v>174.8399963378906</v>
+      </c>
+      <c r="F3496" t="n">
+        <v>174.8399963378906</v>
+      </c>
+      <c r="G3496" t="n">
+        <v>59812200</v>
+      </c>
+    </row>
+    <row r="3497">
+      <c r="A3497" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B3497" t="n">
+        <v>173.5500030517578</v>
+      </c>
+      <c r="C3497" t="n">
+        <v>179.6300048828125</v>
+      </c>
+      <c r="D3497" t="n">
+        <v>172.75</v>
+      </c>
+      <c r="E3497" t="n">
+        <v>177.4600067138672</v>
+      </c>
+      <c r="F3497" t="n">
+        <v>177.4600067138672</v>
+      </c>
+      <c r="G3497" t="n">
+        <v>77445800</v>
+      </c>
+    </row>
+    <row r="3498">
+      <c r="A3498" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B3498" t="n">
+        <v>177.5599975585938</v>
+      </c>
+      <c r="C3498" t="n">
+        <v>177.75</v>
+      </c>
+      <c r="D3498" t="n">
+        <v>173.5200042724609</v>
+      </c>
+      <c r="E3498" t="n">
+        <v>174.9499969482422</v>
+      </c>
+      <c r="F3498" t="n">
+        <v>174.9499969482422</v>
+      </c>
+      <c r="G3498" t="n">
+        <v>61727400</v>
+      </c>
+    </row>
+    <row r="3499">
+      <c r="A3499" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B3499" t="n">
+        <v>175.5099945068359</v>
+      </c>
+      <c r="C3499" t="n">
+        <v>186.8800048828125</v>
+      </c>
+      <c r="D3499" t="n">
+        <v>174.7100067138672</v>
+      </c>
+      <c r="E3499" t="n">
+        <v>186.6000061035156</v>
+      </c>
+      <c r="F3499" t="n">
+        <v>186.6000061035156</v>
+      </c>
+      <c r="G3499" t="n">
+        <v>115266500</v>
+      </c>
+    </row>
+    <row r="3500">
+      <c r="A3500" s="2" t="n">
+        <v>45434</v>
+      </c>
+      <c r="B3500" t="n">
+        <v>182.8500061035156</v>
+      </c>
+      <c r="C3500" t="n">
+        <v>183.8000030517578</v>
+      </c>
+      <c r="D3500" t="n">
+        <v>178.1199951171875</v>
+      </c>
+      <c r="E3500" t="n">
+        <v>180.1100006103516</v>
+      </c>
+      <c r="F3500" t="n">
+        <v>180.1100006103516</v>
+      </c>
+      <c r="G3500" t="n">
+        <v>88313500</v>
+      </c>
+    </row>
+    <row r="3501">
+      <c r="A3501" s="2" t="n">
+        <v>45435</v>
+      </c>
+      <c r="B3501" t="n">
+        <v>181.8000030517578</v>
+      </c>
+      <c r="C3501" t="n">
+        <v>181.8999938964844</v>
+      </c>
+      <c r="D3501" t="n">
+        <v>173.2599945068359</v>
+      </c>
+      <c r="E3501" t="n">
+        <v>173.7400054931641</v>
+      </c>
+      <c r="F3501" t="n">
+        <v>173.7400054931641</v>
+      </c>
+      <c r="G3501" t="n">
+        <v>71975500</v>
+      </c>
+    </row>
+    <row r="3502">
+      <c r="A3502" s="2" t="n">
+        <v>45436</v>
+      </c>
+      <c r="B3502" t="n">
+        <v>174.8399963378906</v>
+      </c>
+      <c r="C3502" t="n">
+        <v>180.0800018310547</v>
+      </c>
+      <c r="D3502" t="n">
+        <v>173.7299957275391</v>
+      </c>
+      <c r="E3502" t="n">
+        <v>179.2400054931641</v>
+      </c>
+      <c r="F3502" t="n">
+        <v>179.2400054931641</v>
+      </c>
+      <c r="G3502" t="n">
+        <v>65479700</v>
+      </c>
+    </row>
+    <row r="3503">
+      <c r="A3503" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B3503" t="n">
+        <v>176.3999938964844</v>
+      </c>
+      <c r="C3503" t="n">
+        <v>178.25</v>
+      </c>
+      <c r="D3503" t="n">
+        <v>173.1600036621094</v>
+      </c>
+      <c r="E3503" t="n">
+        <v>176.75</v>
+      </c>
+      <c r="F3503" t="n">
+        <v>176.75</v>
+      </c>
+      <c r="G3503" t="n">
+        <v>59736600</v>
+      </c>
+    </row>
+    <row r="3504">
+      <c r="A3504" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B3504" t="n">
+        <v>174.1900024414062</v>
+      </c>
+      <c r="C3504" t="n">
+        <v>178.1499938964844</v>
+      </c>
+      <c r="D3504" t="n">
+        <v>173.9299926757812</v>
+      </c>
+      <c r="E3504" t="n">
+        <v>176.1900024414062</v>
+      </c>
+      <c r="F3504" t="n">
+        <v>176.1900024414062</v>
+      </c>
+      <c r="G3504" t="n">
+        <v>54782600</v>
+      </c>
+    </row>
+    <row r="3505">
+      <c r="A3505" s="2" t="n">
+        <v>45442</v>
+      </c>
+      <c r="B3505" t="n">
+        <v>178.5800018310547</v>
+      </c>
+      <c r="C3505" t="n">
+        <v>182.6699981689453</v>
+      </c>
+      <c r="D3505" t="n">
+        <v>175.3800048828125</v>
+      </c>
+      <c r="E3505" t="n">
+        <v>178.7899932861328</v>
+      </c>
+      <c r="F3505" t="n">
+        <v>178.7899932861328</v>
+      </c>
+      <c r="G3505" t="n">
+        <v>77784800</v>
+      </c>
+    </row>
+    <row r="3506">
+      <c r="A3506" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B3506" t="n">
+        <v>178.5</v>
+      </c>
+      <c r="C3506" t="n">
+        <v>180.3200073242188</v>
+      </c>
+      <c r="D3506" t="n">
+        <v>173.8200073242188</v>
+      </c>
+      <c r="E3506" t="n">
+        <v>178.0800018310547</v>
+      </c>
+      <c r="F3506" t="n">
+        <v>178.0800018310547</v>
+      </c>
+      <c r="G3506" t="n">
+        <v>67314600</v>
+      </c>
+    </row>
+    <row r="3507">
+      <c r="A3507" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B3507" t="n">
+        <v>178.1300048828125</v>
+      </c>
+      <c r="C3507" t="n">
+        <v>182.6399993896484</v>
+      </c>
+      <c r="D3507" t="n">
+        <v>174.4900054931641</v>
+      </c>
+      <c r="E3507" t="n">
+        <v>176.2899932861328</v>
+      </c>
+      <c r="F3507" t="n">
+        <v>176.2899932861328</v>
+      </c>
+      <c r="G3507" t="n">
+        <v>68568900</v>
+      </c>
+    </row>
+    <row r="3508">
+      <c r="A3508" s="2" t="n">
+        <v>45447</v>
+      </c>
+      <c r="B3508" t="n">
+        <v>174.7799987792969</v>
+      </c>
+      <c r="C3508" t="n">
+        <v>177.7599945068359</v>
+      </c>
+      <c r="D3508" t="n">
+        <v>174</v>
+      </c>
+      <c r="E3508" t="n">
+        <v>174.7700042724609</v>
+      </c>
+      <c r="F3508" t="n">
+        <v>174.7700042724609</v>
+      </c>
+      <c r="G3508" t="n">
+        <v>60056300</v>
+      </c>
+    </row>
+    <row r="3509">
+      <c r="A3509" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="B3509" t="n">
+        <v>175.3500061035156</v>
+      </c>
+      <c r="C3509" t="n">
+        <v>176.1499938964844</v>
+      </c>
+      <c r="D3509" t="n">
+        <v>172.1300048828125</v>
+      </c>
+      <c r="E3509" t="n">
+        <v>175</v>
+      </c>
+      <c r="F3509" t="n">
+        <v>175</v>
+      </c>
+      <c r="G3509" t="n">
+        <v>57953800</v>
+      </c>
+    </row>
+    <row r="3510">
+      <c r="A3510" s="2" t="n">
+        <v>45449</v>
+      </c>
+      <c r="B3510" t="n">
+        <v>174.6000061035156</v>
+      </c>
+      <c r="C3510" t="n">
+        <v>179.7299957275391</v>
+      </c>
+      <c r="D3510" t="n">
+        <v>172.7299957275391</v>
+      </c>
+      <c r="E3510" t="n">
+        <v>177.9400024414062</v>
+      </c>
+      <c r="F3510" t="n">
+        <v>177.9400024414062</v>
+      </c>
+      <c r="G3510" t="n">
+        <v>69887000</v>
+      </c>
+    </row>
+    <row r="3511">
+      <c r="A3511" s="2" t="n">
+        <v>45450</v>
+      </c>
+      <c r="B3511" t="n">
+        <v>176.1300048828125</v>
+      </c>
+      <c r="C3511" t="n">
+        <v>179.3500061035156</v>
+      </c>
+      <c r="D3511" t="n">
+        <v>175.5800018310547</v>
+      </c>
+      <c r="E3511" t="n">
+        <v>177.4799957275391</v>
+      </c>
+      <c r="F3511" t="n">
+        <v>177.4799957275391</v>
+      </c>
+      <c r="G3511" t="n">
+        <v>56244900</v>
+      </c>
+    </row>
+    <row r="3512">
+      <c r="A3512" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B3512" t="n">
+        <v>176.0599975585938</v>
+      </c>
+      <c r="C3512" t="n">
+        <v>178.5700073242188</v>
+      </c>
+      <c r="D3512" t="n">
+        <v>173.1699981689453</v>
+      </c>
+      <c r="E3512" t="n">
+        <v>173.7899932861328</v>
+      </c>
+      <c r="F3512" t="n">
+        <v>173.7899932861328</v>
+      </c>
+      <c r="G3512" t="n">
+        <v>50869700</v>
+      </c>
+    </row>
+    <row r="3513">
+      <c r="A3513" s="2" t="n">
+        <v>45454</v>
+      </c>
+      <c r="B3513" t="n">
+        <v>173.9199981689453</v>
+      </c>
+      <c r="C3513" t="n">
+        <v>174.75</v>
+      </c>
+      <c r="D3513" t="n">
+        <v>167.4100036621094</v>
+      </c>
+      <c r="E3513" t="n">
+        <v>170.6600036621094</v>
+      </c>
+      <c r="F3513" t="n">
+        <v>170.6600036621094</v>
+      </c>
+      <c r="G3513" t="n">
+        <v>64761900</v>
+      </c>
+    </row>
+    <row r="3514">
+      <c r="A3514" s="2" t="n">
+        <v>45455</v>
+      </c>
+      <c r="B3514" t="n">
+        <v>171.1199951171875</v>
+      </c>
+      <c r="C3514" t="n">
+        <v>180.5500030517578</v>
+      </c>
+      <c r="D3514" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="E3514" t="n">
+        <v>177.2899932861328</v>
+      </c>
+      <c r="F3514" t="n">
+        <v>177.2899932861328</v>
+      </c>
+      <c r="G3514" t="n">
+        <v>90389400</v>
+      </c>
+    </row>
+    <row r="3515">
+      <c r="A3515" s="2" t="n">
+        <v>45456</v>
+      </c>
+      <c r="B3515" t="n">
+        <v>188.3899993896484</v>
+      </c>
+      <c r="C3515" t="n">
+        <v>191.0800018310547</v>
+      </c>
+      <c r="D3515" t="n">
+        <v>181.2299957275391</v>
+      </c>
+      <c r="E3515" t="n">
+        <v>182.4700012207031</v>
+      </c>
+      <c r="F3515" t="n">
+        <v>182.4700012207031</v>
+      </c>
+      <c r="G3515" t="n">
+        <v>118984100</v>
+      </c>
+    </row>
+    <row r="3516">
+      <c r="A3516" s="2" t="n">
+        <v>45457</v>
+      </c>
+      <c r="B3516" t="n">
+        <v>185.8000030517578</v>
+      </c>
+      <c r="C3516" t="n">
+        <v>186</v>
+      </c>
+      <c r="D3516" t="n">
+        <v>176.9199981689453</v>
+      </c>
+      <c r="E3516" t="n">
+        <v>178.0099945068359</v>
+      </c>
+      <c r="F3516" t="n">
+        <v>178.0099945068359</v>
+      </c>
+      <c r="G3516" t="n">
+        <v>82038200</v>
+      </c>
+    </row>
+    <row r="3517">
+      <c r="A3517" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B3517" t="n">
+        <v>177.9199981689453</v>
+      </c>
+      <c r="C3517" t="n">
+        <v>188.8099975585938</v>
+      </c>
+      <c r="D3517" t="n">
+        <v>177</v>
+      </c>
+      <c r="E3517" t="n">
+        <v>187.4400024414062</v>
+      </c>
+      <c r="F3517" t="n">
+        <v>187.4400024414062</v>
+      </c>
+      <c r="G3517" t="n">
+        <v>109786100</v>
+      </c>
+    </row>
+    <row r="3518">
+      <c r="A3518" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B3518" t="n">
+        <v>186.5599975585938</v>
+      </c>
+      <c r="C3518" t="n">
+        <v>187.1999969482422</v>
+      </c>
+      <c r="D3518" t="n">
+        <v>182.3699951171875</v>
+      </c>
+      <c r="E3518" t="n">
+        <v>184.8600006103516</v>
+      </c>
+      <c r="F3518" t="n">
+        <v>184.8600006103516</v>
+      </c>
+      <c r="G3518" t="n">
+        <v>68982300</v>
+      </c>
+    </row>
+    <row r="3519">
+      <c r="A3519" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B3519" t="n">
+        <v>184.6799926757812</v>
+      </c>
+      <c r="C3519" t="n">
+        <v>185.2100067138672</v>
+      </c>
+      <c r="D3519" t="n">
+        <v>179.6600036621094</v>
+      </c>
+      <c r="E3519" t="n">
+        <v>181.5700073242188</v>
+      </c>
+      <c r="F3519" t="n">
+        <v>181.5700073242188</v>
+      </c>
+      <c r="G3519" t="n">
+        <v>55893100</v>
+      </c>
+    </row>
+    <row r="3520">
+      <c r="A3520" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B3520" t="n">
+        <v>182.3000030517578</v>
+      </c>
+      <c r="C3520" t="n">
+        <v>183.9499969482422</v>
+      </c>
+      <c r="D3520" t="n">
+        <v>180.6900024414062</v>
+      </c>
+      <c r="E3520" t="n">
+        <v>183.0099945068359</v>
+      </c>
+      <c r="F3520" t="n">
+        <v>183.0099945068359</v>
+      </c>
+      <c r="G3520" t="n">
+        <v>63029500</v>
+      </c>
+    </row>
+    <row r="3521">
+      <c r="A3521" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B3521" t="n">
+        <v>184.9700012207031</v>
+      </c>
+      <c r="C3521" t="n">
+        <v>188.8000030517578</v>
+      </c>
+      <c r="D3521" t="n">
+        <v>182.5500030517578</v>
+      </c>
+      <c r="E3521" t="n">
+        <v>182.5800018310547</v>
+      </c>
+      <c r="F3521" t="n">
+        <v>182.5800018310547</v>
+      </c>
+      <c r="G3521" t="n">
+        <v>61992100</v>
+      </c>
+    </row>
+    <row r="3522">
+      <c r="A3522" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B3522" t="n">
+        <v>184.3999938964844</v>
+      </c>
+      <c r="C3522" t="n">
+        <v>187.9700012207031</v>
+      </c>
+      <c r="D3522" t="n">
+        <v>182.0099945068359</v>
+      </c>
+      <c r="E3522" t="n">
+        <v>187.3500061035156</v>
+      </c>
+      <c r="F3522" t="n">
+        <v>187.3500061035156</v>
+      </c>
+      <c r="G3522" t="n">
+        <v>63678300</v>
+      </c>
+    </row>
+    <row r="3523">
+      <c r="A3523" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B3523" t="n">
+        <v>186.5399932861328</v>
+      </c>
+      <c r="C3523" t="n">
+        <v>197.7599945068359</v>
+      </c>
+      <c r="D3523" t="n">
+        <v>186.3600006103516</v>
+      </c>
+      <c r="E3523" t="n">
+        <v>196.3699951171875</v>
+      </c>
+      <c r="F3523" t="n">
+        <v>196.3699951171875</v>
+      </c>
+      <c r="G3523" t="n">
+        <v>95737100</v>
+      </c>
+    </row>
+    <row r="3524">
+      <c r="A3524" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B3524" t="n">
+        <v>195.1699981689453</v>
+      </c>
+      <c r="C3524" t="n">
+        <v>198.7200012207031</v>
+      </c>
+      <c r="D3524" t="n">
+        <v>194.0500030517578</v>
+      </c>
+      <c r="E3524" t="n">
+        <v>197.4199981689453</v>
+      </c>
+      <c r="F3524" t="n">
+        <v>197.4199981689453</v>
+      </c>
+      <c r="G3524" t="n">
+        <v>72746500</v>
+      </c>
+    </row>
+    <row r="3525">
+      <c r="A3525" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B3525" t="n">
+        <v>199.5500030517578</v>
+      </c>
+      <c r="C3525" t="n">
+        <v>203.1999969482422</v>
+      </c>
+      <c r="D3525" t="n">
+        <v>195.2599945068359</v>
+      </c>
+      <c r="E3525" t="n">
+        <v>197.8800048828125</v>
+      </c>
+      <c r="F3525" t="n">
+        <v>197.8800048828125</v>
+      </c>
+      <c r="G3525" t="n">
+        <v>95438100</v>
+      </c>
+    </row>
+    <row r="3526">
+      <c r="A3526" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B3526" t="n">
+        <v>201.0200042724609</v>
+      </c>
+      <c r="C3526" t="n">
+        <v>213.2299957275391</v>
+      </c>
+      <c r="D3526" t="n">
+        <v>200.8500061035156</v>
+      </c>
+      <c r="E3526" t="n">
+        <v>209.8600006103516</v>
+      </c>
+      <c r="F3526" t="n">
+        <v>209.8600006103516</v>
+      </c>
+      <c r="G3526" t="n">
+        <v>135691400</v>
+      </c>
+    </row>
+    <row r="3527">
+      <c r="A3527" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B3527" t="n">
+        <v>218.8899993896484</v>
+      </c>
+      <c r="C3527" t="n">
+        <v>231.3000030517578</v>
+      </c>
+      <c r="D3527" t="n">
+        <v>218.0599975585938</v>
+      </c>
+      <c r="E3527" t="n">
+        <v>231.2599945068359</v>
+      </c>
+      <c r="F3527" t="n">
+        <v>231.2599945068359</v>
+      </c>
+      <c r="G3527" t="n">
+        <v>205047900</v>
+      </c>
+    </row>
+    <row r="3528">
+      <c r="A3528" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B3528" t="n">
+        <v>234.5599975585938</v>
+      </c>
+      <c r="C3528" t="n">
+        <v>248.3500061035156</v>
+      </c>
+      <c r="D3528" t="n">
+        <v>234.25</v>
+      </c>
+      <c r="E3528" t="n">
+        <v>246.3899993896484</v>
+      </c>
+      <c r="F3528" t="n">
+        <v>246.3899993896484</v>
+      </c>
+      <c r="G3528" t="n">
+        <v>166561500</v>
+      </c>
+    </row>
+    <row r="3529">
+      <c r="A3529" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B3529" t="n">
+        <v>249.8099975585938</v>
+      </c>
+      <c r="C3529" t="n">
+        <v>252.3699951171875</v>
+      </c>
+      <c r="D3529" t="n">
+        <v>242.4600067138672</v>
+      </c>
+      <c r="E3529" t="n">
+        <v>251.5200042724609</v>
+      </c>
+      <c r="F3529" t="n">
+        <v>251.5200042724609</v>
+      </c>
+      <c r="G3529" t="n">
+        <v>154501200</v>
+      </c>
+    </row>
+    <row r="3530">
+      <c r="A3530" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B3530" t="n">
+        <v>247.7100067138672</v>
+      </c>
+      <c r="C3530" t="n">
+        <v>259.4400024414062</v>
+      </c>
+      <c r="D3530" t="n">
+        <v>244.5700073242188</v>
+      </c>
+      <c r="E3530" t="n">
+        <v>252.9400024414062</v>
+      </c>
+      <c r="F3530" t="n">
+        <v>252.9400024414062</v>
+      </c>
+      <c r="G3530" t="n">
+        <v>157219600</v>
+      </c>
+    </row>
+    <row r="3531">
+      <c r="A3531" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B3531" t="n">
+        <v>251</v>
+      </c>
+      <c r="C3531" t="n">
+        <v>265.6099853515625</v>
+      </c>
+      <c r="D3531" t="n">
+        <v>250.3000030517578</v>
+      </c>
+      <c r="E3531" t="n">
+        <v>262.3299865722656</v>
+      </c>
+      <c r="F3531" t="n">
+        <v>262.3299865722656</v>
+      </c>
+      <c r="G3531" t="n">
+        <v>160210900</v>
+      </c>
+    </row>
+    <row r="3532">
+      <c r="A3532" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B3532" t="n">
+        <v>262.7999877929688</v>
+      </c>
+      <c r="C3532" t="n">
+        <v>267.5899963378906</v>
+      </c>
+      <c r="D3532" t="n">
+        <v>257.8599853515625</v>
+      </c>
+      <c r="E3532" t="n">
+        <v>263.260009765625</v>
+      </c>
+      <c r="F3532" t="n">
+        <v>263.260009765625</v>
+      </c>
+      <c r="G3532" t="n">
+        <v>128519400</v>
+      </c>
+    </row>
+    <row r="3533">
+      <c r="A3533" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B3533" t="n">
+        <v>263.2999877929688</v>
+      </c>
+      <c r="C3533" t="n">
+        <v>271</v>
+      </c>
+      <c r="D3533" t="n">
+        <v>239.6499938964844</v>
+      </c>
+      <c r="E3533" t="n">
+        <v>241.0299987792969</v>
+      </c>
+      <c r="F3533" t="n">
+        <v>241.0299987792969</v>
+      </c>
+      <c r="G3533" t="n">
+        <v>221707300</v>
+      </c>
+    </row>
+    <row r="3534">
+      <c r="A3534" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B3534" t="n">
+        <v>235.8000030517578</v>
+      </c>
+      <c r="C3534" t="n">
+        <v>251.8399963378906</v>
+      </c>
+      <c r="D3534" t="n">
+        <v>233.0899963378906</v>
+      </c>
+      <c r="E3534" t="n">
+        <v>248.2299957275391</v>
+      </c>
+      <c r="F3534" t="n">
+        <v>248.2299957275391</v>
+      </c>
+      <c r="G3534" t="n">
+        <v>155955800</v>
+      </c>
+    </row>
+    <row r="3535">
+      <c r="A3535" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B3535" t="n">
+        <v>255.9700012207031</v>
+      </c>
+      <c r="C3535" t="n">
+        <v>265.6000061035156</v>
+      </c>
+      <c r="D3535" t="n">
+        <v>251.7299957275391</v>
+      </c>
+      <c r="E3535" t="n">
+        <v>252.6399993896484</v>
+      </c>
+      <c r="F3535" t="n">
+        <v>252.6399993896484</v>
+      </c>
+      <c r="G3535" t="n">
+        <v>146912900</v>
+      </c>
+    </row>
+    <row r="3536">
+      <c r="A3536" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B3536" t="n">
+        <v>255.3099975585938</v>
+      </c>
+      <c r="C3536" t="n">
+        <v>258.6199951171875</v>
+      </c>
+      <c r="D3536" t="n">
+        <v>245.8000030517578</v>
+      </c>
+      <c r="E3536" t="n">
+        <v>256.5599975585938</v>
+      </c>
+      <c r="F3536" t="n">
+        <v>256.5599975585938</v>
+      </c>
+      <c r="G3536" t="n">
+        <v>126332500</v>
+      </c>
+    </row>
+    <row r="3537">
+      <c r="A3537" s="2" t="n">
+        <v>45490</v>
+      </c>
+      <c r="B3537" t="n">
+        <v>252.7299957275391</v>
+      </c>
+      <c r="C3537" t="n">
+        <v>258.4700012207031</v>
+      </c>
+      <c r="D3537" t="n">
+        <v>246.1799926757812</v>
+      </c>
+      <c r="E3537" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="F3537" t="n">
+        <v>248.5</v>
+      </c>
+      <c r="G3537" t="n">
+        <v>115584800</v>
+      </c>
+    </row>
+    <row r="3538">
+      <c r="A3538" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B3538" t="n">
+        <v>251.0899963378906</v>
+      </c>
+      <c r="C3538" t="n">
+        <v>257.1400146484375</v>
+      </c>
+      <c r="D3538" t="n">
+        <v>247.1999969482422</v>
+      </c>
+      <c r="E3538" t="n">
+        <v>249.2299957275391</v>
+      </c>
+      <c r="F3538" t="n">
+        <v>249.2299957275391</v>
+      </c>
+      <c r="G3538" t="n">
+        <v>110869000</v>
+      </c>
+    </row>
+    <row r="3539">
+      <c r="A3539" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B3539" t="n">
+        <v>247.7899932861328</v>
+      </c>
+      <c r="C3539" t="n">
+        <v>249.4400024414062</v>
+      </c>
+      <c r="D3539" t="n">
+        <v>236.8300018310547</v>
+      </c>
+      <c r="E3539" t="n">
+        <v>239.1999969482422</v>
+      </c>
+      <c r="F3539" t="n">
+        <v>239.1999969482422</v>
+      </c>
+      <c r="G3539" t="n">
+        <v>87403900</v>
+      </c>
+    </row>
+    <row r="3540">
+      <c r="A3540" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B3540" t="n">
+        <v>244.2100067138672</v>
+      </c>
+      <c r="C3540" t="n">
+        <v>253.2100067138672</v>
+      </c>
+      <c r="D3540" t="n">
+        <v>243.75</v>
+      </c>
+      <c r="E3540" t="n">
+        <v>251.5099945068359</v>
+      </c>
+      <c r="F3540" t="n">
+        <v>251.5099945068359</v>
+      </c>
+      <c r="G3540" t="n">
+        <v>101225400</v>
+      </c>
+    </row>
+    <row r="3541">
+      <c r="A3541" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B3541" t="n">
+        <v>253.6000061035156</v>
+      </c>
+      <c r="C3541" t="n">
+        <v>255.7599945068359</v>
+      </c>
+      <c r="D3541" t="n">
+        <v>245.6300048828125</v>
+      </c>
+      <c r="E3541" t="n">
+        <v>246.3800048828125</v>
+      </c>
+      <c r="F3541" t="n">
+        <v>246.3800048828125</v>
+      </c>
+      <c r="G3541" t="n">
+        <v>111928200</v>
+      </c>
+    </row>
+    <row r="3542">
+      <c r="A3542" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B3542" t="n">
+        <v>225.4199981689453</v>
+      </c>
+      <c r="C3542" t="n">
+        <v>225.9900054931641</v>
+      </c>
+      <c r="D3542" t="n">
+        <v>214.7100067138672</v>
+      </c>
+      <c r="E3542" t="n">
+        <v>215.9900054931641</v>
+      </c>
+      <c r="F3542" t="n">
+        <v>215.9900054931641</v>
+      </c>
+      <c r="G3542" t="n">
+        <v>167942900</v>
+      </c>
+    </row>
+    <row r="3543">
+      <c r="A3543" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B3543" t="n">
+        <v>216.8000030517578</v>
+      </c>
+      <c r="C3543" t="n">
+        <v>226</v>
+      </c>
+      <c r="D3543" t="n">
+        <v>216.2299957275391</v>
+      </c>
+      <c r="E3543" t="n">
+        <v>220.25</v>
+      </c>
+      <c r="F3543" t="n">
+        <v>220.25</v>
+      </c>
+      <c r="G3543" t="n">
+        <v>100636500</v>
+      </c>
+    </row>
+    <row r="3544">
+      <c r="A3544" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B3544" t="n">
+        <v>221.1900024414062</v>
+      </c>
+      <c r="C3544" t="n">
+        <v>222.2799987792969</v>
+      </c>
+      <c r="D3544" t="n">
+        <v>215.3300018310547</v>
+      </c>
+      <c r="E3544" t="n">
+        <v>219.8000030517578</v>
+      </c>
+      <c r="F3544" t="n">
+        <v>219.8000030517578</v>
+      </c>
+      <c r="G3544" t="n">
+        <v>94604100</v>
+      </c>
+    </row>
+    <row r="3545">
+      <c r="A3545" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B3545" t="n">
+        <v>224.8999938964844</v>
+      </c>
+      <c r="C3545" t="n">
+        <v>234.2700042724609</v>
+      </c>
+      <c r="D3545" t="n">
+        <v>224.6999969482422</v>
+      </c>
+      <c r="E3545" t="n">
+        <v>232.1000061035156</v>
+      </c>
+      <c r="F3545" t="n">
+        <v>232.1000061035156</v>
+      </c>
+      <c r="G3545" t="n">
+        <v>129201800</v>
+      </c>
+    </row>
+    <row r="3546">
+      <c r="A3546" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B3546" t="n">
+        <v>232.25</v>
+      </c>
+      <c r="C3546" t="n">
+        <v>232.4100036621094</v>
+      </c>
+      <c r="D3546" t="n">
+        <v>220</v>
+      </c>
+      <c r="E3546" t="n">
+        <v>222.6199951171875</v>
+      </c>
+      <c r="F3546" t="n">
+        <v>222.6199951171875</v>
+      </c>
+      <c r="G3546" t="n">
+        <v>100560300</v>
+      </c>
+    </row>
+    <row r="3547">
+      <c r="A3547" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B3547" t="n">
+        <v>227.8999938964844</v>
+      </c>
+      <c r="C3547" t="n">
+        <v>234.6799926757812</v>
+      </c>
+      <c r="D3547" t="n">
+        <v>226.7899932861328</v>
+      </c>
+      <c r="E3547" t="n">
+        <v>232.0700073242188</v>
+      </c>
+      <c r="F3547" t="n">
+        <v>232.0700073242188</v>
+      </c>
+      <c r="G3547" t="n">
+        <v>67497000</v>
+      </c>
+    </row>
+    <row r="3548">
+      <c r="A3548" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B3548" t="n">
+        <v>227.6900024414062</v>
+      </c>
+      <c r="C3548" t="n">
+        <v>231.8699951171875</v>
+      </c>
+      <c r="D3548" t="n">
+        <v>214.3300018310547</v>
+      </c>
+      <c r="E3548" t="n">
+        <v>216.8600006103516</v>
+      </c>
+      <c r="F3548" t="n">
+        <v>216.8600006103516</v>
+      </c>
+      <c r="G3548" t="n">
+        <v>83861900</v>
+      </c>
+    </row>
+    <row r="3549">
+      <c r="A3549" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B3549" t="n">
+        <v>214.8800048828125</v>
+      </c>
+      <c r="C3549" t="n">
+        <v>216.1300048828125</v>
+      </c>
+      <c r="D3549" t="n">
+        <v>205.7799987792969</v>
+      </c>
+      <c r="E3549" t="n">
+        <v>207.6699981689453</v>
+      </c>
+      <c r="F3549" t="n">
+        <v>207.6699981689453</v>
+      </c>
+      <c r="G3549" t="n">
+        <v>82880100</v>
+      </c>
+    </row>
+    <row r="3550">
+      <c r="A3550" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B3550" t="n">
+        <v>185.2200012207031</v>
+      </c>
+      <c r="C3550" t="n">
+        <v>203.8800048828125</v>
+      </c>
+      <c r="D3550" t="n">
+        <v>182</v>
+      </c>
+      <c r="E3550" t="n">
+        <v>198.8800048828125</v>
+      </c>
+      <c r="F3550" t="n">
+        <v>198.8800048828125</v>
+      </c>
+      <c r="G3550" t="n">
+        <v>100308800</v>
+      </c>
+    </row>
+    <row r="3551">
+      <c r="A3551" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B3551" t="n">
+        <v>200.75</v>
+      </c>
+      <c r="C3551" t="n">
+        <v>202.8999938964844</v>
+      </c>
+      <c r="D3551" t="n">
+        <v>192.6699981689453</v>
+      </c>
+      <c r="E3551" t="n">
+        <v>200.6399993896484</v>
+      </c>
+      <c r="F3551" t="n">
+        <v>200.6399993896484</v>
+      </c>
+      <c r="G3551" t="n">
+        <v>73783900</v>
+      </c>
+    </row>
+    <row r="3552">
+      <c r="A3552" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B3552" t="n">
+        <v>200.7700042724609</v>
+      </c>
+      <c r="C3552" t="n">
+        <v>203.4900054931641</v>
+      </c>
+      <c r="D3552" t="n">
+        <v>191.4799957275391</v>
+      </c>
+      <c r="E3552" t="n">
+        <v>191.7599945068359</v>
+      </c>
+      <c r="F3552" t="n">
+        <v>191.7599945068359</v>
+      </c>
+      <c r="G3552" t="n">
+        <v>71159800</v>
+      </c>
+    </row>
+    <row r="3553">
+      <c r="A3553" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B3553" t="n">
+        <v>195.6999969482422</v>
+      </c>
+      <c r="C3553" t="n">
+        <v>200.6999969482422</v>
+      </c>
+      <c r="D3553" t="n">
+        <v>192.0399932861328</v>
+      </c>
+      <c r="E3553" t="n">
+        <v>198.8399963378906</v>
+      </c>
+      <c r="F3553" t="n">
+        <v>198.8399963378906</v>
+      </c>
+      <c r="G3553" t="n">
+        <v>65033900</v>
+      </c>
+    </row>
+    <row r="3554">
+      <c r="A3554" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B3554" t="n">
+        <v>197.0500030517578</v>
+      </c>
+      <c r="C3554" t="n">
+        <v>200.8800048828125</v>
+      </c>
+      <c r="D3554" t="n">
+        <v>195.1100006103516</v>
+      </c>
+      <c r="E3554" t="n">
+        <v>200</v>
+      </c>
+      <c r="F3554" t="n">
+        <v>200</v>
+      </c>
+      <c r="G3554" t="n">
+        <v>58648300</v>
+      </c>
+    </row>
+    <row r="3555">
+      <c r="A3555" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B3555" t="n">
+        <v>199.0200042724609</v>
+      </c>
+      <c r="C3555" t="n">
+        <v>199.2599945068359</v>
+      </c>
+      <c r="D3555" t="n">
+        <v>194.6699981689453</v>
+      </c>
+      <c r="E3555" t="n">
+        <v>197.4900054931641</v>
+      </c>
+      <c r="F3555" t="n">
+        <v>197.4900054931641</v>
+      </c>
+      <c r="G3555" t="n">
+        <v>64044900</v>
+      </c>
+    </row>
+    <row r="3556">
+      <c r="A3556" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B3556" t="n">
+        <v>198.4700012207031</v>
+      </c>
+      <c r="C3556" t="n">
+        <v>208.4900054931641</v>
+      </c>
+      <c r="D3556" t="n">
+        <v>197.0599975585938</v>
+      </c>
+      <c r="E3556" t="n">
+        <v>207.8300018310547</v>
+      </c>
+      <c r="F3556" t="n">
+        <v>207.8300018310547</v>
+      </c>
+      <c r="G3556" t="n">
+        <v>76039200</v>
+      </c>
+    </row>
+    <row r="3557">
+      <c r="A3557" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B3557" t="n">
+        <v>207.3899993896484</v>
+      </c>
+      <c r="C3557" t="n">
+        <v>208.4398956298828</v>
+      </c>
+      <c r="D3557" t="n">
+        <v>198.75</v>
+      </c>
+      <c r="E3557" t="n">
+        <v>200.6300964355469</v>
+      </c>
+      <c r="F3557" t="n">
+        <v>200.6300964355469</v>
+      </c>
+      <c r="G3557" t="n">
+        <v>55950400</v>
       </c>
     </row>
   </sheetData>
